--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2D553-9810-4105-8035-5479A0A5A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C762D9-FFD7-4A73-9C49-73ECA43A7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="346">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1347,6 +1347,32 @@
   </si>
   <si>
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>29/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+07/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+31/03/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+18/03/2025 SIGUE PENDIENTE PARA ARCHIVAR
+27/02/2025 - VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+21/02/2025 VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>29//04/2025</t>
+  </si>
+  <si>
+    <t>29/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+07/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+31/03/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+18/03/2025 PENDIENTE PROYECTAR DE TERMINACIÓN (YA SE RECIBIERON LOS ALEGATOS)
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>29/04/2025 EN TRÁMITE DE RECURSOS
+07/04/2025 EN TRÁMITE DE RECURSOS
+31/03/2025 EN TRÁMITE DE RECURSOS
+18/03/2025 PENDIENTE DE RECURSOS
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
   </si>
 </sst>
 </file>
@@ -1946,10 +1972,10 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3552,10 +3578,10 @@
         <v>45615</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N30" s="8">
-        <v>45754</v>
+        <v>342</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="O30" s="8">
         <v>45691</v>
@@ -3567,7 +3593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>293</v>
       </c>
@@ -3605,10 +3631,10 @@
         <v>45693</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="N31" s="8">
-        <v>45754</v>
+        <v>344</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
@@ -3620,7 +3646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>298</v>
       </c>
@@ -3658,10 +3684,10 @@
         <v>45720</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="N32" s="8">
-        <v>45754</v>
+        <v>345</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="O32" s="8">
         <v>45691</v>
@@ -5143,7 +5169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>127</v>
       </c>
@@ -5532,7 +5558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>179</v>
       </c>
@@ -5815,7 +5841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>213</v>
       </c>
@@ -5868,7 +5894,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -5921,7 +5947,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>231</v>
       </c>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C762D9-FFD7-4A73-9C49-73ECA43A7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CA362-7F94-4B89-B4D6-771DC2BE6F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="346">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -149,9 +149,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>CNE-E-DG-2022-022511 - VALLE DEL CAUCA</t>
-  </si>
-  <si>
     <t>27/10/2022</t>
   </si>
   <si>
@@ -168,25 +165,6 @@
   </si>
   <si>
     <t>ART. 25</t>
-  </si>
-  <si>
-    <t>01/04/2025 APROBADA RESOLUCION No 01467 EN SALA
-14/03/2025 RECURSO RADICADO EN SALA
-17/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 RESOLUCION YA NOTIFICADA, EN ESPERA PARA ARCHIVAR EL EXPEDIENTE PRINCIPAL
-07/04/2025 EN ESPERA DE NOTIFICACIONES
-27/03/2025 SE RADICO PARA SU ESTUDIO EN SALA EL DIA 1 DE ABRIL DE 2025
-06/03/2025 EN PROYECCIÓN DE LOS 2 RECURSOS ALLEGADOS EN CONTRA DE LA RESOLUCION No 06024 DEL 13 DE NOVIEMBRE 
-27/02/2025 EN PROCESO DE REALIZACIÓN DE RECURSO 
-21/02/2025 - ALLEGARON 2 RECURSOS (RESOLUCIÓN No. 06024 - 2024) </t>
-  </si>
-  <si>
-    <t>18/02/2025</t>
-  </si>
-  <si>
-    <t>ORIGEN: ARLET MONCADA DESTINO:ANDREA TOBAR</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-006767</t>
@@ -1373,6 +1351,21 @@
 31/03/2025 EN TRÁMITE DE RECURSOS
 18/03/2025 PENDIENTE DE RECURSOS
 27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-007754</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE RECONOCIMIENTO DE AGRUPACIÓN POLÍTICA MOVIMIENTO POLÍTICO SOCIAL COMUNAL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GUSTAVO GARCIA FIGUEROA Y JENNY LILIANA PULIDO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1662,6 +1655,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1972,10 +1968,10 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2109,327 +2105,327 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11">
-        <v>44861</v>
+        <v>45758</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45957</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7">
-        <v>45748</v>
+        <v>45775</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" s="8">
         <v>45775</v>
       </c>
       <c r="O3" s="8">
-        <v>45706</v>
+        <v>45775</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="11">
-        <v>45758</v>
+        <v>45684</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I4" s="11">
+        <v>46779</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7">
-        <v>45775</v>
+      <c r="L4" s="11">
+        <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" s="8">
         <v>45775</v>
       </c>
       <c r="O4" s="8">
-        <v>45775</v>
+        <v>45688</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="11">
-        <v>46779</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="C5" s="14">
+        <v>45720</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="14">
+        <v>46816</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="14">
+        <v>45762</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="N5" s="8">
         <v>45775</v>
       </c>
-      <c r="O5" s="8">
-        <v>45688</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="O5" s="14">
+        <v>45721</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14">
-        <v>45720</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="14">
-        <v>46816</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="11">
+        <v>45086</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="11">
+        <v>46164</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="11">
+        <v>45700</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="8">
+        <v>45776</v>
+      </c>
+      <c r="O6" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="14">
-        <v>45762</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="8">
-        <v>45775</v>
-      </c>
-      <c r="O6" s="14">
-        <v>45721</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>32</v>
+      <c r="Q6" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11">
-        <v>45086</v>
+        <v>45070</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I7" s="11">
-        <v>46164</v>
+        <v>46166</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="11">
-        <v>45700</v>
+        <v>45735</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N7" s="8">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="O7" s="8">
         <v>45691</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
-        <v>45070</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="11">
-        <v>46166</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="C8" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="8">
-        <v>45777</v>
+      <c r="L8" s="7">
+        <v>45775</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45775</v>
       </c>
       <c r="O8" s="8">
         <v>45691</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="P8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -2438,34 +2434,34 @@
         <v>44861</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I9" s="7">
         <v>45790</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="7">
-        <v>45775</v>
+        <v>45705</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N9" s="7">
         <v>45775</v>
@@ -2474,899 +2470,899 @@
         <v>45691</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
-        <v>44861</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45790</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="C10" s="11">
+        <v>45100</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="11">
+        <v>46172</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7">
-        <v>45705</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>105</v>
+      <c r="L10" s="11">
+        <v>45708</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="O10" s="8">
         <v>45691</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>106</v>
+      <c r="P10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="11">
-        <v>45100</v>
+        <v>45684</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="I11" s="11">
-        <v>46172</v>
+        <v>46710</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L11" s="11">
-        <v>45708</v>
+        <v>45722</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="O11" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>45685</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="11">
-        <v>46710</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>133</v>
+      <c r="C12" s="7">
+        <v>45161</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="7">
+        <v>46257</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="11">
-        <v>45722</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>135</v>
+      <c r="L12" s="7">
+        <v>45370</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="N12" s="7">
-        <v>45769</v>
+        <v>45775</v>
       </c>
       <c r="O12" s="8">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
-        <v>45161</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="7">
-        <v>46257</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="C13" s="19">
+        <v>44203</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45298</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="7">
-        <v>45370</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>144</v>
+      <c r="L13" s="19">
+        <v>45698</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="N13" s="7">
         <v>45775</v>
       </c>
-      <c r="O13" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="O13" s="20">
+        <v>45666</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="19">
-        <v>44203</v>
+        <v>44627</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="I14" s="19">
-        <v>45298</v>
+        <v>45701</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="19">
-        <v>45698</v>
+        <v>45744</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N14" s="7">
         <v>45775</v>
       </c>
       <c r="O14" s="20">
-        <v>45666</v>
+        <v>45708</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="19">
-        <v>44627</v>
+        <v>45266</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="19">
-        <v>45701</v>
+        <v>46174</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="19">
-        <v>45744</v>
+        <v>45714</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
         <v>45775</v>
       </c>
       <c r="O15" s="20">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19">
-        <v>45266</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="19">
-        <v>46174</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="19">
-        <v>45714</v>
-      </c>
-      <c r="M16" s="15" t="s">
+      <c r="C16" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>167</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7">
+        <v>45734</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="N16" s="7">
         <v>45775</v>
       </c>
-      <c r="O16" s="20">
-        <v>45715</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="O16" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>45049</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="7">
-        <v>46145</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7">
-        <v>45734</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="C17" s="11">
+        <v>45518</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>177</v>
       </c>
+      <c r="F17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="11">
+        <v>46613</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="11">
+        <v>45771</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="N17" s="7">
-        <v>45775</v>
+        <v>45771</v>
       </c>
       <c r="O17" s="8">
         <v>45691</v>
       </c>
-      <c r="P17" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="P17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11">
-        <v>45518</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="11">
-        <v>46613</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="C18" s="7">
+        <v>45688</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="E18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="7">
+        <v>46783</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="11">
-        <v>45771</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>186</v>
+      <c r="L18" s="7">
+        <v>45748</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="N18" s="7">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="O18" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>45744</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
-        <v>45688</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="24">
+        <v>45246</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="24">
+        <v>46342</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="24">
+        <v>45735</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45775</v>
+      </c>
+      <c r="O19" s="26">
+        <v>45733</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="7">
-        <v>46783</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7">
-        <v>45748</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="N19" s="7">
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="24">
         <v>45769</v>
       </c>
-      <c r="O19" s="8">
-        <v>45744</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24">
-        <v>45246</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="24">
-        <v>46342</v>
+        <v>205</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="24">
-        <v>45735</v>
+        <v>45769</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N20" s="7">
         <v>45775</v>
       </c>
-      <c r="O20" s="26">
-        <v>45733</v>
+      <c r="O20" s="7">
+        <v>45775</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="24">
-        <v>45769</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45246</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="E21" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="F21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="H21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="24">
-        <v>45769</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>212</v>
+      <c r="L21" s="8">
+        <v>45754</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="N21" s="7">
         <v>45775</v>
       </c>
-      <c r="O21" s="7">
-        <v>45775</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="O21" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
-        <v>45246</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="26">
+        <v>45264</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="26">
+        <v>46315</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="26">
+        <v>45735</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N22" s="11">
+        <v>45771</v>
+      </c>
+      <c r="O22" s="26">
+        <v>45691</v>
+      </c>
+      <c r="P22" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="Q22" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45653</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="28">
+        <v>46549</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="8">
-        <v>45754</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="N22" s="7">
-        <v>45775</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="L23" s="28">
+        <v>45712</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N23" s="11">
+        <v>45751</v>
+      </c>
+      <c r="O23" s="8">
         <v>45691</v>
       </c>
-      <c r="P22" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="P23" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="26">
-        <v>45264</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="I23" s="26">
-        <v>46315</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="K23" s="25" t="s">
+      <c r="C24" s="11">
+        <v>45541</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="11">
+        <v>46636</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="26">
-        <v>45735</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="N23" s="11">
-        <v>45771</v>
-      </c>
-      <c r="O23" s="26">
-        <v>45691</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="28">
-        <v>45653</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="28">
-        <v>46549</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="28">
-        <v>45712</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>239</v>
+      <c r="L24" s="11">
+        <v>45705</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="N24" s="11">
-        <v>45751</v>
+        <v>45762</v>
       </c>
       <c r="O24" s="8">
         <v>45691</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="P24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11">
-        <v>45541</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="11">
-        <v>46636</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="C25" s="8">
+        <v>45466</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="E25" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45466</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="11">
-        <v>45705</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="N25" s="11">
-        <v>45762</v>
+      <c r="L25" s="8">
+        <v>45673</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" s="7">
+        <v>45755</v>
       </c>
       <c r="O25" s="8">
         <v>45691</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="P25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="8">
-        <v>45466</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I26" s="8">
-        <v>45466</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="8">
-        <v>45673</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="C26" s="28">
+        <v>45665</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>258</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="28">
+        <v>45700</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="N26" s="7">
         <v>45755</v>
@@ -3374,281 +3370,281 @@
       <c r="O26" s="8">
         <v>45691</v>
       </c>
-      <c r="P26" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+      <c r="P26" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C27" s="28">
-        <v>45665</v>
+        <v>45758</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="L27" s="28">
-        <v>45700</v>
+        <v>45758</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" s="7">
-        <v>45755</v>
+        <v>45771</v>
       </c>
       <c r="O27" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>260</v>
+        <v>45775</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="28">
-        <v>45758</v>
-      </c>
-      <c r="D28" s="10" t="s">
+    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45505</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="8">
+        <v>46395</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N28" s="8">
+        <v>45771</v>
+      </c>
+      <c r="O28" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="Q28" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="8">
+        <v>43999</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="28">
-        <v>45758</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="N28" s="7">
-        <v>45771</v>
-      </c>
-      <c r="O28" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="8">
-        <v>45505</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="H29" s="15" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="I29" s="8">
-        <v>46395</v>
+        <v>44967</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L29" s="8">
-        <v>45720</v>
+        <v>45615</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="N29" s="8">
-        <v>45771</v>
+        <v>337</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="O29" s="8">
         <v>45691</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>284</v>
+    <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="8">
-        <v>43999</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="8">
-        <v>44967</v>
-      </c>
-      <c r="J30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="8">
-        <v>45615</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>342</v>
+      <c r="E30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O30" s="8">
         <v>45691</v>
       </c>
-      <c r="P30" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q30" s="15" t="s">
+      <c r="P30" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7">
-        <v>45266</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="7">
-        <v>46232</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="H31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J31" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="7">
-        <v>45693</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>344</v>
+      <c r="L31" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
       </c>
-      <c r="P31" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q31" s="6" t="s">
+      <c r="P31" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>18</v>
@@ -3657,87 +3653,87 @@
         <v>44861</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="H32" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I32" s="8">
-        <v>45790</v>
+        <v>45729</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L32" s="8">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>343</v>
+        <v>309</v>
+      </c>
+      <c r="N32" s="8">
+        <v>45775</v>
       </c>
       <c r="O32" s="8">
         <v>45691</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="8">
-        <v>44861</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="8">
-        <v>45729</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="8">
-        <v>45748</v>
-      </c>
-      <c r="M33" s="15" t="s">
+      <c r="C33" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>314</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I33" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="N33" s="8">
         <v>45775</v>
@@ -3745,175 +3741,175 @@
       <c r="O33" s="8">
         <v>45691</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="P33" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="7">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="I34" s="7">
-        <v>46535</v>
+        <v>46992</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="7">
-        <v>45714</v>
+        <v>45720</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N34" s="8">
         <v>45775</v>
       </c>
       <c r="O34" s="8">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="7">
-        <v>45715</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="C35" s="11">
+        <v>45709</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="E35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="7">
-        <v>46992</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K35" s="6" t="s">
+      <c r="I35" s="11">
+        <v>46804</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="7">
-        <v>45720</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>332</v>
+      <c r="L35" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="N35" s="8">
-        <v>45775</v>
+        <v>45762</v>
       </c>
       <c r="O35" s="8">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11">
-        <v>45709</v>
+        <v>45776</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="11">
-        <v>46804</v>
+        <v>205</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="11">
-        <v>45735</v>
+        <v>45776</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="N36" s="8">
-        <v>45762</v>
-      </c>
-      <c r="O36" s="8">
-        <v>45713</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>315</v>
+        <v>345</v>
+      </c>
+      <c r="N36" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O36" s="11">
+        <v>45714</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>18</v>
@@ -3922,25 +3918,25 @@
         <v>45700</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I37" s="14">
         <v>46795</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>26</v>
@@ -3949,7 +3945,7 @@
         <v>45744</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N37" s="8">
         <v>45754</v>
@@ -3958,7 +3954,7 @@
         <v>45701</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>32</v>
@@ -4039,52 +4035,52 @@
     </row>
     <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I2" s="7">
         <v>46795</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -4097,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,25 +4159,25 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>24</v>
@@ -4190,16 +4186,16 @@
         <v>45729</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -4208,51 +4204,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="I3" s="11">
         <v>46535</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -4261,7 +4257,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -4269,25 +4265,25 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -4296,25 +4292,25 @@
         <v>46992</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -4322,25 +4318,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -4349,28 +4345,81 @@
         <v>46804</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>341</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45776</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="11">
+        <v>45776</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="N6" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O6" s="11">
+        <v>45714</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4380,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,163 +4546,110 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45957</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I4" s="11">
+        <v>46779</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>29</v>
+      <c r="L4" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="11">
-        <v>46779</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4729,52 +4725,52 @@
     </row>
     <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7">
         <v>46816</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -4782,78 +4778,78 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="I3" s="11">
         <v>46164</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -4862,28 +4858,28 @@
         <v>46166</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4959,34 +4955,34 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -4995,7 +4991,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -5004,51 +5000,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="11">
         <v>45790</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -5057,104 +5053,104 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I4" s="11">
         <v>46172</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I5" s="11">
         <v>46232</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5163,60 +5159,60 @@
         <v>29</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I6" s="7">
         <v>46710</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>32</v>
@@ -5224,43 +5220,43 @@
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I7" s="7">
         <v>46257</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>29</v>
@@ -5269,10 +5265,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5348,78 +5344,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I2" s="7">
         <v>45298</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>24</v>
@@ -5428,51 +5424,51 @@
         <v>45701</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -5481,69 +5477,69 @@
         <v>46174</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I5" s="11">
         <v>46145</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5552,33 +5548,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -5587,60 +5583,60 @@
         <v>46613</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I7" s="11">
         <v>46783</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>26</v>
@@ -5649,113 +5645,113 @@
         <v>27</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="I8" s="11">
         <v>46342</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>29</v>
@@ -5764,10 +5760,10 @@
         <v>29</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5841,45 +5837,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -5888,113 +5884,113 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I3" s="11">
         <v>46315</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I4" s="11">
         <v>46549</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -6002,55 +5998,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I5" s="11">
         <v>46636</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6126,52 +6122,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I2" s="7">
         <v>45466</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6179,52 +6175,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="K3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6303,52 +6299,52 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6356,52 +6352,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I3" s="11">
         <v>46395</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6480,52 +6476,52 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I2" s="7">
         <v>44967</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6533,52 +6529,52 @@
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I3" s="11">
         <v>46232</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6586,52 +6582,52 @@
     </row>
     <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="11">
         <v>45790</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CA362-7F94-4B89-B4D6-771DC2BE6F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D96AC-B3D0-4784-BD27-3B874CEF274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="345">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1164,9 +1164,6 @@
 27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-002144</t>
-  </si>
-  <si>
     <t>TRASLADO PARA CONCERTO DE SALA PLENA - ESTATUTO DE LA OPOSICION</t>
   </si>
   <si>
@@ -1184,17 +1181,6 @@
   <si>
     <t>28/03/2025 AUTO DEL 18 DE MARZO DE 2025 CORRE TRASLADO DE ALEGATOS DENTRO DEL EXPEDIENTE 04243
 12/02/2025 - RECIBIDO</t>
-  </si>
-  <si>
-    <t>07/04/2025 EN REVISIÓN DE SHANNERY
-28/03/2025 YA FUE APROBADO Y NOTIFICADO
-17/03/2025 ESTA EN REVISIÓN DE LA DOCTORA SHANNERY
-06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
-28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
-21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
-  </si>
-  <si>
-    <t>13/02/2025</t>
   </si>
   <si>
     <t>RUBÉN MARTINEZ</t>
@@ -1366,6 +1352,18 @@
   </si>
   <si>
     <t>29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-002441</t>
+  </si>
+  <si>
+    <t>30/04/2025 EN REVISION DE LA OFICINA JURIDICA
+07/04/2025 EN REVISIÓN DE SHANNERY
+28/03/2025 YA FUE APROBADO Y NOTIFICADO
+17/03/2025 ESTA EN REVISIÓN DE LA DOCTORA SHANNERY
+06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
+28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
+21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
   </si>
 </sst>
 </file>
@@ -1969,9 +1967,9 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3521,10 +3519,10 @@
         <v>45615</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O29" s="8">
         <v>45691</v>
@@ -3574,10 +3572,10 @@
         <v>45693</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O30" s="8">
         <v>45691</v>
@@ -3627,10 +3625,10 @@
         <v>45720</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
@@ -3644,7 +3642,7 @@
     </row>
     <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>18</v>
@@ -3671,7 +3669,7 @@
         <v>45729</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>63</v>
@@ -3680,7 +3678,7 @@
         <v>45748</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N32" s="8">
         <v>45775</v>
@@ -3689,15 +3687,15 @@
         <v>45691</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>18</v>
@@ -3706,25 +3704,25 @@
         <v>45440</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="I33" s="7">
         <v>46535</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>26</v>
@@ -3733,7 +3731,7 @@
         <v>45714</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N33" s="8">
         <v>45775</v>
@@ -3742,7 +3740,7 @@
         <v>45691</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>32</v>
@@ -3750,7 +3748,7 @@
     </row>
     <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>18</v>
@@ -3759,16 +3757,16 @@
         <v>45715</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>24</v>
@@ -3777,7 +3775,7 @@
         <v>46992</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>26</v>
@@ -3786,7 +3784,7 @@
         <v>45720</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N34" s="8">
         <v>45775</v>
@@ -3795,7 +3793,7 @@
         <v>45715</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>32</v>
@@ -3803,7 +3801,7 @@
     </row>
     <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>18</v>
@@ -3812,16 +3810,16 @@
         <v>45709</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>177</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>24</v>
@@ -3830,7 +3828,7 @@
         <v>46804</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>26</v>
@@ -3839,7 +3837,7 @@
         <v>45735</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N35" s="8">
         <v>45762</v>
@@ -3848,15 +3846,15 @@
         <v>45713</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>40</v>
@@ -3865,16 +3863,16 @@
         <v>45776</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>205</v>
@@ -3883,7 +3881,7 @@
         <v>36</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
@@ -3892,7 +3890,7 @@
         <v>45776</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N36" s="11">
         <v>45776</v>
@@ -3901,15 +3899,15 @@
         <v>45714</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>18</v>
@@ -3918,25 +3916,25 @@
         <v>45700</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="I37" s="14">
         <v>46795</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>26</v>
@@ -3945,16 +3943,16 @@
         <v>45744</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="N37" s="8">
-        <v>45754</v>
+        <v>45777</v>
       </c>
       <c r="O37" s="14">
         <v>45701</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>32</v>
@@ -3972,7 +3970,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,56 +4031,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="7">
-        <v>46795</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O2" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4159,7 +4157,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -4186,7 +4184,7 @@
         <v>45729</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>63</v>
@@ -4195,7 +4193,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -4204,42 +4202,42 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="I3" s="11">
         <v>46535</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
@@ -4248,7 +4246,7 @@
         <v>119</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -4257,7 +4255,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -4265,7 +4263,7 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
@@ -4274,16 +4272,16 @@
         <v>163</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -4292,7 +4290,7 @@
         <v>46992</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
@@ -4301,7 +4299,7 @@
         <v>58</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
@@ -4310,7 +4308,7 @@
         <v>163</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -4318,25 +4316,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -4345,7 +4343,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
@@ -4354,24 +4352,24 @@
         <v>53</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>40</v>
@@ -4380,16 +4378,16 @@
         <v>45776</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>205</v>
@@ -4398,7 +4396,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
@@ -4407,7 +4405,7 @@
         <v>45776</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N6" s="11">
         <v>45776</v>
@@ -4416,7 +4414,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>32</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D96AC-B3D0-4784-BD27-3B874CEF274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BEFB3-BC41-47AA-B64E-01D100677D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="MONICA PARDO" sheetId="8" r:id="rId9"/>
     <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId10"/>
     <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId11"/>
+    <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="353">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1364,6 +1365,30 @@
 06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
 28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
 21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008134</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REVOCATORIA DE MANDATO DEL ACTUAL ALCALDE DEL MUNICIPIO DE HONDA TOLIMA, SEÑOR JUAN ENRIQUE RONDON GARCIA</t>
+  </si>
+  <si>
+    <t>TOLIMA</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>CARLOS HUGO MESA MAYNE</t>
+  </si>
+  <si>
+    <t>REVOCATORIA DE MANDATO</t>
+  </si>
+  <si>
+    <t>02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
+  </si>
+  <si>
+    <t>SHANNERY CHAPARRO</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1656,6 +1681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,12 +1992,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:Q37"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3958,6 +3986,57 @@
         <v>32</v>
       </c>
     </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="N38" s="8">
+        <v>45779</v>
+      </c>
+      <c r="O38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4425,6 +4504,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65B1D2-9DDC-4748-A89D-A3B554A960BE}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14">
+        <v>45779</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" s="8">
+        <v>45779</v>
+      </c>
+      <c r="O2" s="14">
+        <v>45779</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BEFB3-BC41-47AA-B64E-01D100677D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C4F97-11DD-4523-BCCE-8D60DFED0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="353">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1994,10 +1994,10 @@
   </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:Q38"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4011,7 +4011,9 @@
       <c r="H38" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J38" s="13" t="s">
         <v>351</v>
       </c>
@@ -4508,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65B1D2-9DDC-4748-A89D-A3B554A960BE}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,7 +4597,9 @@
       <c r="H2" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="13" t="s">
         <v>351</v>
       </c>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C4F97-11DD-4523-BCCE-8D60DFED0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797D59C-5176-48CB-85BD-1B771DFFC788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="359">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1389,6 +1389,24 @@
   </si>
   <si>
     <t>SHANNERY CHAPARRO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008157</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE PRÓRROGA PARA LA RECOLECCIÓN DE FIRMAS DE LA CONSULTA POPULAR DE ORIGEN CIUDADANO DENOMINADA "MUNICIPIO DE ALCALÁ EN EL ÁREA METROPOLITANA CENTRO OCCIDENTE AMCO</t>
+  </si>
+  <si>
+    <t>ALCALÁ</t>
+  </si>
+  <si>
+    <t>CARLOS ALCIDES ROJAS PEREZ</t>
+  </si>
+  <si>
+    <t>MECANISMOS DE PARTICIPACIÓN CIUDADANA</t>
+  </si>
+  <si>
+    <t>05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1685,6 +1703,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1992,12 +2013,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3882,165 +3903,218 @@
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="11">
-        <v>45776</v>
+        <v>45417</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>341</v>
+        <v>355</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="11">
-        <v>45776</v>
+        <v>45782</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="N36" s="11">
-        <v>45776</v>
-      </c>
-      <c r="O36" s="11">
+        <v>358</v>
+      </c>
+      <c r="N36" s="8">
+        <v>45783</v>
+      </c>
+      <c r="O36" s="8">
         <v>45714</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="N37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O37" s="11">
+        <v>45714</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C38" s="14">
         <v>45700</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>46795</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="14">
-        <v>45744</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="N37" s="8">
-        <v>45777</v>
-      </c>
-      <c r="O37" s="14">
-        <v>45701</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L38" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="N38" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O38" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="14">
         <v>45779</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="D39" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="N38" s="8">
+      <c r="K39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="14">
         <v>45779</v>
       </c>
-      <c r="O38" s="14">
+      <c r="M39" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="N39" s="8">
         <v>45779</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="O39" s="14">
+        <v>45779</v>
+      </c>
+      <c r="P39" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="Q38" s="31" t="s">
+      <c r="Q39" s="31" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4172,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4501,6 +4575,59 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45417</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="11">
+        <v>45782</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="8">
+        <v>45783</v>
+      </c>
+      <c r="O7" s="8">
+        <v>45714</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4510,7 +4637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65B1D2-9DDC-4748-A89D-A3B554A960BE}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797D59C-5176-48CB-85BD-1B771DFFC788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD8DD0-0738-4B08-9948-2883BF2AB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,14 +27,27 @@
     <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="353">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -233,40 +246,16 @@
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: ANDREA TOBAR</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-004014</t>
-  </si>
-  <si>
     <t>04/03/2025</t>
   </si>
   <si>
-    <t>QUEJA CONTRA EL SEÑOR DANIEL BECERRA MIEMBRO DE LA JUNTA NACIONAL DE COORDINACIÓN DEL MOVIMIENTO POLITICO COLOMBIA HUMANA POR PRESUNTAMENTE UTILIZAR DINEROS DEL PARTIDO SIN DEBIDA AUTORIZACIÓN</t>
-  </si>
-  <si>
     <t>ANONIMO</t>
   </si>
   <si>
-    <t>DELITOS CONTRA LA ADMINISTRACIÓN PUBLICA</t>
-  </si>
-  <si>
-    <t>15/04/2025 OFICIO 006 SE ENVIO AL PETICIONARIO
-15/04/2025 OFICIO 004 SE ENVIO PARA EL MOVIMIENTO POLITICO COLOMBIA HUMANA
-05/03/2025 - RECIBIDO</t>
-  </si>
-  <si>
     <t>PRE-ARCHIVO</t>
   </si>
   <si>
     <t>15/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 PARA ARCHIVAR EN LA FECHA 29/04/2025
-07/04/2025 OFICIOS DE REVISIÓN DE LAURA
-25/03/2025 OFICIOS PARA REVISIÓN
-14/03/2025 OFICIOS PARA REVISIÓN
-05/03/2025 ENTREGARON REPARTO </t>
-  </si>
-  <si>
-    <t>05/03/2025</t>
   </si>
   <si>
     <t>ANYI AGUIRRE</t>
@@ -2013,12 +2002,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:Q36"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2258,168 +2247,168 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14">
-        <v>45720</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="C5" s="11">
+        <v>45086</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="11">
+        <v>46164</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="11">
+        <v>45700</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="8">
+        <v>45776</v>
+      </c>
+      <c r="O5" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="14">
-        <v>46816</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="14">
-        <v>45762</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="8">
-        <v>45775</v>
-      </c>
-      <c r="O5" s="14">
-        <v>45721</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>32</v>
+      <c r="Q5" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11">
-        <v>45086</v>
+        <v>45070</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I6" s="11">
-        <v>46164</v>
+        <v>46166</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="11">
-        <v>45700</v>
+        <v>45735</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N6" s="8">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="O6" s="8">
         <v>45691</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11">
-        <v>45070</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11">
-        <v>46166</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="8">
-        <v>45777</v>
+      <c r="L7" s="7">
+        <v>45775</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45775</v>
       </c>
       <c r="O7" s="8">
         <v>45691</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="Q7" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2428,7 +2417,7 @@
         <v>44861</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>91</v>
@@ -2452,10 +2441,10 @@
         <v>26</v>
       </c>
       <c r="L8" s="7">
-        <v>45775</v>
+        <v>45705</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="7">
         <v>45775</v>
@@ -2464,899 +2453,899 @@
         <v>45691</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>44861</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45790</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="C9" s="11">
+        <v>45100</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="E9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="11">
+        <v>46172</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="7">
-        <v>45705</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>100</v>
+      <c r="L9" s="11">
+        <v>45708</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="N9" s="7">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="O9" s="8">
         <v>45691</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>101</v>
+      <c r="P9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="11">
-        <v>45100</v>
+        <v>45684</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="I10" s="11">
-        <v>46172</v>
+        <v>46710</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="11">
-        <v>45708</v>
+        <v>45722</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="O10" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>45685</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="11">
-        <v>46710</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>128</v>
+      <c r="C11" s="7">
+        <v>45161</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7">
+        <v>46257</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="11">
-        <v>45722</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>130</v>
+      <c r="L11" s="7">
+        <v>45370</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="N11" s="7">
-        <v>45769</v>
+        <v>45775</v>
       </c>
       <c r="O11" s="8">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
-        <v>45161</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="19">
+        <v>44203</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="7">
-        <v>46257</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="G12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="19">
+        <v>45298</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="7">
-        <v>45370</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>139</v>
+      <c r="L12" s="19">
+        <v>45698</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="N12" s="7">
         <v>45775</v>
       </c>
-      <c r="O12" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="O12" s="20">
+        <v>45666</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="19">
-        <v>44203</v>
+        <v>44627</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="I13" s="19">
-        <v>45298</v>
+        <v>45701</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="19">
-        <v>45698</v>
+        <v>45744</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
         <v>45775</v>
       </c>
       <c r="O13" s="20">
-        <v>45666</v>
+        <v>45708</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="19">
-        <v>44627</v>
+        <v>45266</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="19">
-        <v>45701</v>
+        <v>46174</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="19">
-        <v>45744</v>
+        <v>45714</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N14" s="7">
         <v>45775</v>
       </c>
       <c r="O14" s="20">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19">
-        <v>45266</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="19">
-        <v>46174</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="19">
-        <v>45714</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="G15" s="6" t="s">
         <v>162</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="7">
+        <v>45734</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="N15" s="7">
         <v>45775</v>
       </c>
-      <c r="O15" s="20">
-        <v>45715</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="O15" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
-        <v>45049</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="7">
-        <v>46145</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="C16" s="11">
+        <v>45518</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="7">
-        <v>45734</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="E16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11">
+        <v>46613</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="11">
+        <v>45771</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="N16" s="7">
-        <v>45775</v>
+        <v>45771</v>
       </c>
       <c r="O16" s="8">
         <v>45691</v>
       </c>
-      <c r="P16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="P16" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
-        <v>45518</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="7">
+        <v>45688</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="11">
-        <v>46613</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="F17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="7">
+        <v>46783</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="11">
-        <v>45771</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>181</v>
+      <c r="L17" s="7">
+        <v>45748</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="N17" s="7">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="O17" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>45744</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7">
-        <v>45688</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="24">
+        <v>45246</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="24">
+        <v>46342</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="24">
+        <v>45735</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" s="7">
+        <v>45775</v>
+      </c>
+      <c r="O18" s="26">
+        <v>45733</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q18" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="7">
-        <v>46783</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="7">
-        <v>45748</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="7">
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="24">
         <v>45769</v>
       </c>
-      <c r="O18" s="8">
-        <v>45744</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="24">
-        <v>45246</v>
-      </c>
       <c r="D19" s="23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="24">
-        <v>46342</v>
+        <v>199</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>26</v>
       </c>
       <c r="L19" s="24">
-        <v>45735</v>
+        <v>45769</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N19" s="7">
         <v>45775</v>
       </c>
-      <c r="O19" s="26">
-        <v>45733</v>
+      <c r="O19" s="7">
+        <v>45775</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="24">
-        <v>45769</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45246</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="23" t="s">
+      <c r="H20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="24">
-        <v>45769</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>207</v>
+      <c r="L20" s="8">
+        <v>45754</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="N20" s="7">
         <v>45775</v>
       </c>
-      <c r="O20" s="7">
-        <v>45775</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="O20" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
-        <v>45246</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="26">
+        <v>45264</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="26">
+        <v>46315</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="26">
+        <v>45735</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" s="11">
+        <v>45771</v>
+      </c>
+      <c r="O21" s="26">
+        <v>45691</v>
+      </c>
+      <c r="P21" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="Q21" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="28">
+        <v>45653</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="28">
+        <v>46549</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="8">
-        <v>45754</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N21" s="7">
-        <v>45775</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="L22" s="28">
+        <v>45712</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22" s="11">
+        <v>45751</v>
+      </c>
+      <c r="O22" s="8">
         <v>45691</v>
       </c>
-      <c r="P21" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="P22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="26">
-        <v>45264</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="26">
-        <v>46315</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="K22" s="25" t="s">
+      <c r="C23" s="11">
+        <v>45541</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="11">
+        <v>46636</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="26">
-        <v>45735</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="N22" s="11">
-        <v>45771</v>
-      </c>
-      <c r="O22" s="26">
-        <v>45691</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="28">
-        <v>45653</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="28">
-        <v>46549</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="28">
-        <v>45712</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>234</v>
+      <c r="L23" s="11">
+        <v>45705</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="N23" s="11">
-        <v>45751</v>
+        <v>45762</v>
       </c>
       <c r="O23" s="8">
         <v>45691</v>
       </c>
-      <c r="P23" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="P23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="11">
-        <v>45541</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="C24" s="8">
+        <v>45466</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I24" s="11">
-        <v>46636</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="E24" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="F24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45466</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="11">
-        <v>45705</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="N24" s="11">
-        <v>45762</v>
+      <c r="L24" s="8">
+        <v>45673</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N24" s="7">
+        <v>45755</v>
       </c>
       <c r="O24" s="8">
         <v>45691</v>
       </c>
-      <c r="P24" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="P24" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="8">
-        <v>45466</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="C25" s="28">
+        <v>45665</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="I25" s="8">
-        <v>45466</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="8">
-        <v>45673</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>253</v>
+      <c r="G25" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="28">
+        <v>45700</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="N25" s="7">
         <v>45755</v>
@@ -3364,28 +3353,28 @@
       <c r="O25" s="8">
         <v>45691</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="15" t="s">
+      <c r="P25" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q25" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C26" s="28">
-        <v>45665</v>
+        <v>45758</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>36</v>
@@ -3403,242 +3392,242 @@
         <v>262</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="L26" s="28">
-        <v>45700</v>
+        <v>45758</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>263</v>
       </c>
       <c r="N26" s="7">
-        <v>45755</v>
+        <v>45771</v>
       </c>
       <c r="O26" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>255</v>
+        <v>45775</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45505</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="8">
+        <v>46395</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="N27" s="8">
+        <v>45771</v>
+      </c>
+      <c r="O27" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="28">
-        <v>45758</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="28">
-        <v>45758</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="N27" s="7">
-        <v>45771</v>
-      </c>
-      <c r="O27" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="Q27" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>18</v>
+        <v>273</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C28" s="8">
-        <v>45505</v>
+        <v>43999</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="I28" s="8">
-        <v>46395</v>
+        <v>44967</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L28" s="8">
-        <v>45720</v>
+        <v>45615</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="N28" s="8">
-        <v>45771</v>
+        <v>328</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="O28" s="8">
         <v>45691</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q28" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>279</v>
+    <row r="29" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" s="8">
-        <v>43999</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="8">
-        <v>44967</v>
-      </c>
-      <c r="J29" s="15" t="s">
+      <c r="E29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="8">
-        <v>45615</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>334</v>
+      <c r="K29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O29" s="8">
         <v>45691</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>45266</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J30" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="7">
-        <v>46232</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="7">
-        <v>45693</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>336</v>
+      <c r="L30" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O30" s="8">
         <v>45691</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q30" s="6" t="s">
+      <c r="P30" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q30" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>18</v>
@@ -3647,10 +3636,10 @@
         <v>44861</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>36</v>
@@ -3659,75 +3648,75 @@
         <v>37</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I31" s="8">
-        <v>45790</v>
+        <v>45729</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L31" s="8">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>335</v>
+        <v>300</v>
+      </c>
+      <c r="N31" s="8">
+        <v>45775</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8">
-        <v>44861</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="8">
-        <v>45729</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="C32" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="8">
-        <v>45748</v>
-      </c>
-      <c r="M32" s="15" t="s">
+      <c r="E32" s="6" t="s">
         <v>306</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="N32" s="8">
         <v>45775</v>
@@ -3735,386 +3724,333 @@
       <c r="O32" s="8">
         <v>45691</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="P32" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="I33" s="7">
-        <v>46535</v>
+        <v>46992</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L33" s="7">
-        <v>45714</v>
+        <v>45720</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N33" s="8">
         <v>45775</v>
       </c>
       <c r="O33" s="8">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="7">
-        <v>45715</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="C34" s="11">
+        <v>45709</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="G34" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="7">
-        <v>46992</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="I34" s="11">
+        <v>46804</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="7">
-        <v>45720</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>324</v>
+      <c r="L34" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="N34" s="8">
-        <v>45775</v>
+        <v>45762</v>
       </c>
       <c r="O34" s="8">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C35" s="11">
-        <v>45709</v>
+        <v>45417</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>329</v>
+        <v>349</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>350</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="11">
-        <v>46804</v>
+        <v>351</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L35" s="11">
-        <v>45735</v>
+        <v>45782</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="N35" s="8">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="O35" s="8">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="11">
-        <v>45417</v>
+        <v>45776</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>356</v>
+        <v>334</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="11">
-        <v>45782</v>
+        <v>45776</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N36" s="8">
-        <v>45783</v>
-      </c>
-      <c r="O36" s="8">
+        <v>336</v>
+      </c>
+      <c r="N36" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O36" s="11">
         <v>45714</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>307</v>
+      <c r="P36" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I37" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="N37" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O37" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="C38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="E38" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="F38" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="N37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="O37" s="11">
-        <v>45714</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45700</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I38" s="14">
-        <v>46795</v>
-      </c>
       <c r="J38" s="13" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L38" s="14">
-        <v>45744</v>
+        <v>45779</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" s="8">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="O38" s="14">
-        <v>45701</v>
+        <v>45779</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q38" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="N39" s="8">
-        <v>45779</v>
-      </c>
-      <c r="O39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4188,7 +4124,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>18</v>
@@ -4197,25 +4133,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I2" s="14">
         <v>46795</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>26</v>
@@ -4224,7 +4160,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N2" s="8">
         <v>45777</v>
@@ -4233,7 +4169,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>32</v>
@@ -4312,7 +4248,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -4324,7 +4260,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>36</v>
@@ -4339,16 +4275,16 @@
         <v>45729</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -4357,51 +4293,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I3" s="11">
         <v>46535</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -4410,7 +4346,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -4418,25 +4354,25 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -4445,25 +4381,25 @@
         <v>46992</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -4471,25 +4407,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>24</v>
@@ -4498,7 +4434,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
@@ -4507,24 +4443,24 @@
         <v>53</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>40</v>
@@ -4533,25 +4469,25 @@
         <v>45776</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
@@ -4560,7 +4496,7 @@
         <v>45776</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N6" s="11">
         <v>45776</v>
@@ -4569,7 +4505,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>32</v>
@@ -4577,7 +4513,7 @@
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
@@ -4586,25 +4522,25 @@
         <v>45417</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>26</v>
@@ -4613,7 +4549,7 @@
         <v>45782</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N7" s="8">
         <v>45783</v>
@@ -4622,7 +4558,7 @@
         <v>45714</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>32</v>
@@ -4701,7 +4637,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>40</v>
@@ -4710,25 +4646,25 @@
         <v>45779</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>26</v>
@@ -4737,7 +4673,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N2" s="8">
         <v>45779</v>
@@ -4746,7 +4682,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="31" t="s">
         <v>32</v>
@@ -4989,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,163 +4989,110 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="11">
+        <v>46164</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="7">
-        <v>46816</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I3" s="11">
-        <v>46164</v>
+        <v>46166</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="11">
-        <v>46166</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5168,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -5294,10 +5177,10 @@
         <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>36</v>
@@ -5312,7 +5195,7 @@
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -5321,7 +5204,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -5330,15 +5213,15 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -5347,10 +5230,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>36</v>
@@ -5365,16 +5248,16 @@
         <v>45790</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -5383,77 +5266,77 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I4" s="11">
         <v>46172</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>36</v>
@@ -5462,25 +5345,25 @@
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I5" s="11">
         <v>46232</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5489,15 +5372,15 @@
         <v>29</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -5506,43 +5389,43 @@
         <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I6" s="7">
         <v>46710</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>32</v>
@@ -5550,16 +5433,16 @@
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
@@ -5568,25 +5451,25 @@
         <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
         <v>46257</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>29</v>
@@ -5595,10 +5478,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5674,16 +5557,16 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
@@ -5692,60 +5575,60 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I2" s="7">
         <v>45298</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>24</v>
@@ -5754,42 +5637,42 @@
         <v>45701</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>36</v>
@@ -5807,42 +5690,42 @@
         <v>46174</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>36</v>
@@ -5851,25 +5734,25 @@
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I5" s="11">
         <v>46145</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5878,33 +5761,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -5913,33 +5796,33 @@
         <v>46613</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>18</v>
@@ -5948,25 +5831,25 @@
         <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I7" s="11">
         <v>46783</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>26</v>
@@ -5975,51 +5858,51 @@
         <v>27</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I8" s="11">
         <v>46342</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>26</v>
@@ -6028,33 +5911,33 @@
         <v>53</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>36</v>
@@ -6063,25 +5946,25 @@
         <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>29</v>
@@ -6090,7 +5973,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>36</v>
@@ -6169,25 +6052,25 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>38</v>
@@ -6196,16 +6079,16 @@
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -6214,42 +6097,42 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I3" s="11">
         <v>46315</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
@@ -6258,69 +6141,69 @@
         <v>53</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I4" s="11">
         <v>46549</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -6328,55 +6211,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I5" s="11">
         <v>46636</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6452,52 +6335,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I2" s="7">
         <v>45466</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6505,52 +6388,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6629,16 +6512,16 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
@@ -6647,16 +6530,16 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -6665,16 +6548,16 @@
         <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6682,52 +6565,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I3" s="11">
         <v>46395</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6806,52 +6689,52 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I2" s="7">
         <v>44967</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6859,16 +6742,16 @@
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>36</v>
@@ -6877,34 +6760,34 @@
         <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I3" s="11">
         <v>46232</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6912,7 +6795,7 @@
     </row>
     <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
@@ -6921,7 +6804,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>36</v>
@@ -6939,25 +6822,25 @@
         <v>45790</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD8DD0-0738-4B08-9948-2883BF2AB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE97079-05B6-4892-B571-367FDA92B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="357">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1397,6 +1397,18 @@
   <si>
     <t>05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
+  <si>
+    <t>CNE-E-DG-2025-008553</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE INTERVENCIÓN POR VULNERACIÓN DE DERECHO DE REPLICA - ARTICULO 17 LEY 1909 DE 2018</t>
+  </si>
+  <si>
+    <t>DIEGO FABIAN CASTILLO QUINTERO</t>
+  </si>
+  <si>
+    <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,6 +1460,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1600,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1694,6 +1712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2002,12 +2023,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3042,310 +3063,310 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="24">
+        <v>45782</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="24">
+        <v>45789</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="N20" s="7">
+        <v>45789</v>
+      </c>
+      <c r="O20" s="7">
+        <v>45789</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>45246</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <v>45790</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L21" s="8">
         <v>45754</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M21" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="7">
         <v>45775</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <v>45691</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C22" s="26">
         <v>45264</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F22" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H22" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I22" s="26">
         <v>46315</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L22" s="26">
         <v>45735</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N22" s="11">
         <v>45771</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O22" s="26">
         <v>45691</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C23" s="28">
         <v>45653</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I23" s="28">
         <v>46549</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L23" s="28">
         <v>45712</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N23" s="11">
         <v>45751</v>
-      </c>
-      <c r="O22" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="11">
-        <v>45541</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="11">
-        <v>46636</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="11">
-        <v>45705</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="N23" s="11">
-        <v>45762</v>
       </c>
       <c r="O23" s="8">
         <v>45691</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="Q23" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="Q23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="8">
-        <v>45466</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I24" s="8">
-        <v>45466</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="C24" s="11">
+        <v>45541</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="11">
+        <v>46636</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="8">
-        <v>45673</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="N24" s="7">
-        <v>45755</v>
+      <c r="L24" s="11">
+        <v>45705</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="N24" s="11">
+        <v>45762</v>
       </c>
       <c r="O24" s="8">
         <v>45691</v>
       </c>
-      <c r="P24" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="P24" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="28">
-        <v>45665</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="28">
-        <v>45700</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>257</v>
+      <c r="C25" s="8">
+        <v>45466</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45466</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="8">
+        <v>45673</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="N25" s="7">
         <v>45755</v>
@@ -3353,211 +3374,211 @@
       <c r="O25" s="8">
         <v>45691</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="C26" s="28">
-        <v>45758</v>
+        <v>45665</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>36</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L26" s="28">
-        <v>45758</v>
+        <v>45700</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N26" s="7">
-        <v>45771</v>
+        <v>45755</v>
       </c>
       <c r="O26" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>264</v>
+        <v>45691</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8">
-        <v>45505</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="I27" s="8">
-        <v>46395</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K27" s="15" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="28">
+        <v>45758</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="8">
-        <v>45720</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="N27" s="8">
+      <c r="L27" s="28">
+        <v>45758</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="N27" s="7">
         <v>45771</v>
       </c>
       <c r="O27" s="8">
-        <v>45691</v>
+        <v>45775</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="8">
-        <v>43999</v>
+        <v>45505</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="I28" s="8">
-        <v>44967</v>
+        <v>46395</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L28" s="8">
-        <v>45615</v>
+        <v>45720</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>329</v>
+        <v>272</v>
+      </c>
+      <c r="N28" s="8">
+        <v>45771</v>
       </c>
       <c r="O28" s="8">
         <v>45691</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>282</v>
+    <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7">
-        <v>45266</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="8">
+        <v>43999</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="7">
-        <v>46232</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="7">
-        <v>45693</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>330</v>
+      <c r="I29" s="8">
+        <v>44967</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="8">
+        <v>45615</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>329</v>
@@ -3565,52 +3586,52 @@
       <c r="O29" s="8">
         <v>45691</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="8">
-        <v>44861</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="C30" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="8">
-        <v>45720</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>331</v>
+      <c r="L30" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>329</v>
@@ -3618,16 +3639,16 @@
       <c r="O30" s="8">
         <v>45691</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>18</v>
@@ -3636,10 +3657,10 @@
         <v>44861</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>36</v>
@@ -3648,75 +3669,75 @@
         <v>37</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I31" s="8">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L31" s="8">
-        <v>45748</v>
+        <v>45720</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="N31" s="8">
-        <v>45775</v>
+        <v>331</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="7">
-        <v>45440</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32" s="7">
-        <v>46535</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="7">
-        <v>45714</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>311</v>
+      <c r="C32" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45729</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="8">
+        <v>45748</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="N32" s="8">
         <v>45775</v>
@@ -3724,58 +3745,58 @@
       <c r="O32" s="8">
         <v>45691</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="Q32" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="Q32" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>45715</v>
+        <v>45440</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="I33" s="7">
-        <v>46992</v>
+        <v>46535</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L33" s="7">
-        <v>45720</v>
+        <v>45714</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N33" s="8">
         <v>45775</v>
       </c>
       <c r="O33" s="8">
-        <v>45715</v>
+        <v>45691</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>301</v>
@@ -3785,272 +3806,325 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="11">
-        <v>45709</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="C34" s="7">
+        <v>45715</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="11">
-        <v>46804</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="I34" s="7">
+        <v>46992</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>325</v>
+      <c r="L34" s="7">
+        <v>45720</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="N34" s="8">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="O34" s="8">
-        <v>45713</v>
+        <v>45715</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="Q34" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C35" s="11">
-        <v>45417</v>
+        <v>45709</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>350</v>
+        <v>322</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="I35" s="11">
+        <v>46804</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L35" s="11">
-        <v>45782</v>
+        <v>45735</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="N35" s="8">
-        <v>45783</v>
+        <v>45762</v>
       </c>
       <c r="O35" s="8">
-        <v>45714</v>
+        <v>45713</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>301</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="11">
-        <v>45776</v>
+        <v>45417</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>335</v>
+        <v>349</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>350</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="11">
-        <v>45776</v>
+        <v>45782</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="N36" s="11">
-        <v>45776</v>
-      </c>
-      <c r="O36" s="11">
+        <v>352</v>
+      </c>
+      <c r="N36" s="8">
+        <v>45783</v>
+      </c>
+      <c r="O36" s="8">
         <v>45714</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="6" t="s">
         <v>301</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O37" s="11">
+        <v>45714</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C38" s="14">
         <v>45700</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>46795</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="14">
-        <v>45744</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="N37" s="8">
-        <v>45777</v>
-      </c>
-      <c r="O37" s="14">
-        <v>45701</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>345</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L38" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="N38" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O38" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="14">
         <v>45779</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="D39" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N38" s="8">
+      <c r="K39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="14">
         <v>45779</v>
       </c>
-      <c r="O38" s="14">
+      <c r="M39" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="N39" s="8">
         <v>45779</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="O39" s="14">
+        <v>45779</v>
+      </c>
+      <c r="P39" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="Q38" s="31" t="s">
+      <c r="Q39" s="31" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5491,10 +5565,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,6 +6050,59 @@
         <v>144</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="24">
+        <v>45782</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="24">
+        <v>45789</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45789</v>
+      </c>
+      <c r="O10" s="7">
+        <v>45789</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>36</v>
       </c>
     </row>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE97079-05B6-4892-B571-367FDA92B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AF1A0-B674-4258-8A39-81CC789B9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="348">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -166,9 +166,6 @@
     <t>27/10/2022</t>
   </si>
   <si>
-    <t>RELACION DE CANDIDATOS QUE NO PRESENTARON INFORME DE INGRESOS Y GASTOS DE CAMPAÑA -CONGRESO ELECCIONES 2022, EN ATENCION A LA OBLIGACION DISPUESTA EN EL ARTICULO 25 DE LA LEY 1475 DE 2011 Y POSIBLE VULNERACION A LOS TERMINOS ESTABLECIDOS EN EL ARTICULO 25 DE LEY 1475 DE 2011 -CONGRESO ELECCIONES 2022. (PARTIDO ALIANZA VERDE)</t>
-  </si>
-  <si>
     <t>VALLE DEL CAUCA</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>CNE-E-DG-2023-012966</t>
   </si>
   <si>
-    <t>09/06/2023</t>
-  </si>
-  <si>
     <t>DENUNCIA POR VIOLACIÓN AL ART. 35 DE LA LEY 1475 DE 2011, POR PARTE DEL PRECANDIDATO AL CONSEJO DE PEREIRA -RISARALDA, VICTOR CARMONA</t>
   </si>
   <si>
@@ -282,34 +276,13 @@
     <t>PUBLICIDAD</t>
   </si>
   <si>
-    <t>12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
-20/01/2025  RECIBIDO</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2025 LA PLATAFORMA META DIO RESPUESTA AL AUTO MEJOR PROVEER
-07/04/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
-28/03/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
-13/03/2025 SE ENVIO AUTO MEJOR PROVEER PARA REVISIÓN 
-05/03/2025 EL SEÑOR VICTOR HUGO CARMONA DUQUE ALLEGO ALETOS DE CONCLUSIÓN Y EN LA FECHA 04/03/2025 VENCE TERMINOS PARA ALEGATOS 
-04/03/2025 VENCE TERMINOS PARA ALEGATOS 
-12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
-EL 17 DE FEBRERO VENCE TERMINOS PARA PRESENTAR DESCARGOS PARA LOS SUJETOS PROCESALES.
-PENDIENTE LAS COMUNICACIONES DE LA RESOLUCIÓN NO. 06680 DEL 18 DE DICIEMBRE DE 2024 DE APERTURA Y FORMULACIÓN DE CARGOS POR PRESUNTA VIOLACIÓN AL ARTICULO 35 DE LA LEY 1475 DE 2011. </t>
-  </si>
-  <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: ANYI AGUIRRE</t>
   </si>
   <si>
     <t>CNE-E-DG-2023-011738</t>
-  </si>
-  <si>
-    <t>24/05/2023</t>
   </si>
   <si>
     <t>DENUNCIA POR VIOLACIÓN AL ART. 35 DE LA LEY 1471 DE 20211, POR PARTE DEL PRE CANDIDATO A LA ALCALDIA DE TULUA -VALLE DEL CAUCA, SANDRA PATRICIA ARRUBLA CARDONA</t>
@@ -324,20 +297,6 @@
     <t>19/03/2025 RECIBIDO POR LA ASESORA ANYI AGUIRRE
 12/02/2025 RESOLUCIÓN No 0597 SE ABRE INVESTIGACION Y SE FORMULAN CARGOS CONTRA LA CIUDADANA SANDRA PATRICIA ARRUBLA POR LA PRESUNTA VULNERACION A LAS NORMAS QUE RIGEN LA PROPAGANDA ELECTORAL
 20/01/2025 - RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/04/2025 VENCE TERMINO PARA ALEGATOS
-03/04/2025 SE ENVIA AUTO No 034 PARA FIRMA
-28/03/2025 EN LA FECHA 27 DE MARZO DE 2025 VENCEN TERMINOS PARA PRESENTAR DESCARGOS
-17/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO, NO HAN PRESENTADO DESCARGO
-06/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-27/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-05/02/2025 SE ENVIO A RADICAR A SALA 
-31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
-  </si>
-  <si>
-    <t>30/04/2025</t>
   </si>
   <si>
     <t>ORIGEN: VANESSA ROSSELL - JUAN DAVID OSPINA DESTINO: ANYI AGUIRRE</t>
@@ -1176,34 +1135,7 @@
     <t>RUBÉN MARTINEZ</t>
   </si>
   <si>
-    <t>CNE-E-DG-2022-022511 - BOGOTÁ D.C</t>
-  </si>
-  <si>
-    <t>01/04/2025 RESOLUCIÓN No 1472 POR MEDIO DE LA CUAL SE RESUEVE RECURSO DE REPOSICIÓN DEL EX GERENTE
-12/02/2025 RESOLUCIÓN No. 0616 POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN INTERPUESTO POR EL  EXCANDIDATO
-07/11/24 RESOLUCIÓN N° 5873 MEDIANTE LA CUAL SE SANCIONA AL EX CANDIDATO Y SU EX GERENTE APROBADA EN SALA EL 7 DE NOVIEMBRE. TÉRMINO PARA INTERPONER RECURSO HASTA EL 21/01/2025.
-28/08/24 AUTO NO. 116 CORRIGE AUTO 105 Y CORRE TRASLADO DE ALEGATOS DE CONCLUSIÓN. FINALIZA TÉRMINO PARA PRESENTAR ALEGATOS EL 19/09.
-30/07/24 AUTO NO. 105 CORRE TRASLADO PARA PRESENTAR ALEGATOS DE CONCLUSIÓN.
-17/04/24 RESOLUCIÓN NO. 02077 POR MEDIO DE LA CUAL SE APERTURA Y SE FORMULA CARGOS. VENCE TÉRMINO PARA PRESENTAR DESCARGOS EL 25/07/24.
-21/03/24 PONENCIA DE APERTURA RADICADA PARA LA SALA DEL 10/04/24.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 PENDIENTE COMUNICACIONES PARA ARCHIVO 
-07/04/2025 PENDIENTE COMUNICACIONES PARA ARCHIVO 
-28/03/2025 ENTRO PARA SALA EL 1 DE ABRIL DE 2025
-13/03/2025 SE RADICÓ EN SALA PONENCIA POR MEDIO DE LA CUAL SE REVUELVE RECURSO DE REPOSICIÓN
-06/03/2025 PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN DEL EXGERENTE DE CAMPAÑA EN SEGUNDO FILTRO.
-27/02/2025 PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN INTERPUESTO POR EL EXGERENTE DE CAMPAÑA EN REVISIÓN DE SEGUNDO FILTRO.
-20/02/2025 PENDIENTE DE RESOLVER RECURSO DE REPOSICIÓN DEL EXGERENTE.
-13/02/2025 PENDIENTE COMUNICACIONES PARA ARCHIVAR
-RADICADA EN SALA EL DÍA 05/02/2025, PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN 
-PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN EN REVISIÓN DE LAURA 28/01/2025 </t>
-  </si>
-  <si>
     <t>STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>ORIGEN: MARGARITA RONCALLO DESTINO: STEPHANI GUERRERO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-012113</t>
@@ -1408,6 +1340,36 @@
   </si>
   <si>
     <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
+  <si>
+    <t>14/04/2025AUTO No 034 -TRASLADO DE ALEGATOS PUBLICIDAD
+20/03/2025 AUTO 028- PRUEBAS PUBLICIDAD MEJOR PROVEER
+12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
+20/01/2025  RECIBIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/04/2025SE ENVÍO RESOLUCIÓN QUE DA POR TERMINADO A REVISIÓN DE LAURA
+29/04/2025 LA PLATAFORMA META DIO RESPUESTA AL AUTO MEJOR PROVEER
+07/04/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
+28/03/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
+13/03/2025 SE ENVIO AUTO MEJOR PROVEER PARA REVISIÓN 
+05/03/2025 EL SEÑOR VICTOR HUGO CARMONA DUQUE ALLEGO ALETOS DE CONCLUSIÓN Y EN LA FECHA 04/03/2025 VENCE TERMINOS PARA ALEGATOS 
+04/03/2025 VENCE TERMINOS PARA ALEGATOS 
+12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
+EL 17 DE FEBRERO VENCE TERMINOS PARA PRESENTAR DESCARGOS PARA LOS SUJETOS PROCESALES.
+PENDIENTE LAS COMUNICACIONES DE LA RESOLUCIÓN NO. 06680 DEL 18 DE DICIEMBRE DE 2024 DE APERTURA Y FORMULACIÓN DE CARGOS POR PRESUNTA VIOLACIÓN AL ARTICULO 35 DE LA LEY 1475 DE 2011. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/05/2025PROYECTANDO RESOLUCIÓN - LA CANDIDATA NO HA ALLEGADO ALEGATOS
+30/04/2025 VENCE TERMINO PARA ALEGATOS
+03/04/2025 SE ENVIA AUTO No 034 PARA FIRMA
+28/03/2025 EN LA FECHA 27 DE MARZO DE 2025 VENCEN TERMINOS PARA PRESENTAR DESCARGOS
+17/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO, NO HAN PRESENTADO DESCARGO
+06/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+27/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+05/02/2025 SE ENVIO A RADICAR A SALA 
+31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
   </si>
 </sst>
 </file>
@@ -2023,12 +1985,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:Q20"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,34 +2126,34 @@
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="11">
         <v>45758</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
@@ -2200,7 +2162,7 @@
         <v>45775</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="8">
         <v>45775</v>
@@ -2217,7 +2179,7 @@
     </row>
     <row r="4" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -2226,25 +2188,25 @@
         <v>45684</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="11">
         <v>46779</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
@@ -2253,7 +2215,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="8">
         <v>45775</v>
@@ -2265,12 +2227,12 @@
         <v>31</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
@@ -2279,51 +2241,51 @@
         <v>45086</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I5" s="11">
         <v>46164</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11">
-        <v>45700</v>
+        <v>45761</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="N5" s="8">
-        <v>45776</v>
+        <v>45791</v>
       </c>
       <c r="O5" s="8">
         <v>45691</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -2332,16 +2294,16 @@
         <v>45070</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -2350,7 +2312,7 @@
         <v>46166</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
@@ -2359,24 +2321,24 @@
         <v>45735</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="N6" s="8">
-        <v>45777</v>
+        <v>45761</v>
       </c>
       <c r="O6" s="8">
         <v>45691</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
@@ -2385,25 +2347,25 @@
         <v>44861</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="7">
         <v>45790</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>26</v>
@@ -2412,7 +2374,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N7" s="7">
         <v>45775</v>
@@ -2421,15 +2383,15 @@
         <v>45691</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2438,25 +2400,25 @@
         <v>44861</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I8" s="7">
         <v>45790</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>26</v>
@@ -2465,7 +2427,7 @@
         <v>45705</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N8" s="7">
         <v>45775</v>
@@ -2474,15 +2436,15 @@
         <v>45691</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2491,25 +2453,25 @@
         <v>45100</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="11">
         <v>46172</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>26</v>
@@ -2518,7 +2480,7 @@
         <v>45708</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
         <v>45770</v>
@@ -2527,15 +2489,15 @@
         <v>45691</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
@@ -2544,25 +2506,25 @@
         <v>45684</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I10" s="11">
         <v>46710</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>26</v>
@@ -2571,7 +2533,7 @@
         <v>45722</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7">
         <v>45769</v>
@@ -2580,7 +2542,7 @@
         <v>45685</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>32</v>
@@ -2588,7 +2550,7 @@
     </row>
     <row r="11" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
@@ -2597,25 +2559,25 @@
         <v>45161</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
         <v>46257</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>26</v>
@@ -2624,7 +2586,7 @@
         <v>45370</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
         <v>45775</v>
@@ -2633,15 +2595,15 @@
         <v>45691</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>18</v>
@@ -2650,25 +2612,25 @@
         <v>44203</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I12" s="19">
         <v>45298</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>26</v>
@@ -2677,7 +2639,7 @@
         <v>45698</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N12" s="7">
         <v>45775</v>
@@ -2686,15 +2648,15 @@
         <v>45666</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>18</v>
@@ -2703,16 +2665,16 @@
         <v>44627</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>24</v>
@@ -2721,7 +2683,7 @@
         <v>45701</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>26</v>
@@ -2730,7 +2692,7 @@
         <v>45744</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N13" s="7">
         <v>45775</v>
@@ -2739,15 +2701,15 @@
         <v>45708</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
@@ -2756,16 +2718,16 @@
         <v>45266</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>24</v>
@@ -2774,7 +2736,7 @@
         <v>46174</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>26</v>
@@ -2783,7 +2745,7 @@
         <v>45714</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
         <v>45775</v>
@@ -2792,15 +2754,15 @@
         <v>45715</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
@@ -2809,34 +2771,34 @@
         <v>45049</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I15" s="7">
         <v>46145</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7">
         <v>45734</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N15" s="7">
         <v>45775</v>
@@ -2845,15 +2807,15 @@
         <v>45691</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>18</v>
@@ -2862,16 +2824,16 @@
         <v>45518</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>24</v>
@@ -2880,7 +2842,7 @@
         <v>46613</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>26</v>
@@ -2889,7 +2851,7 @@
         <v>45771</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N16" s="7">
         <v>45771</v>
@@ -2898,15 +2860,15 @@
         <v>45691</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>18</v>
@@ -2915,25 +2877,25 @@
         <v>45688</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
         <v>46783</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>26</v>
@@ -2942,7 +2904,7 @@
         <v>45748</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N17" s="7">
         <v>45769</v>
@@ -2951,15 +2913,15 @@
         <v>45744</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>18</v>
@@ -2968,25 +2930,25 @@
         <v>45246</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I18" s="24">
         <v>46342</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>26</v>
@@ -2995,7 +2957,7 @@
         <v>45735</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N18" s="7">
         <v>45775</v>
@@ -3004,42 +2966,42 @@
         <v>45733</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C19" s="24">
         <v>45769</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>26</v>
@@ -3048,7 +3010,7 @@
         <v>45769</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
         <v>45775</v>
@@ -3057,42 +3019,42 @@
         <v>45775</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C20" s="24">
         <v>45782</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>26</v>
@@ -3101,7 +3063,7 @@
         <v>45789</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="N20" s="7">
         <v>45789</v>
@@ -3110,15 +3072,15 @@
         <v>45789</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>18</v>
@@ -3127,25 +3089,25 @@
         <v>45246</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8">
         <v>45790</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>26</v>
@@ -3154,7 +3116,7 @@
         <v>45754</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N21" s="7">
         <v>45775</v>
@@ -3163,15 +3125,15 @@
         <v>45691</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>18</v>
@@ -3180,25 +3142,25 @@
         <v>45264</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I22" s="26">
         <v>46315</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>26</v>
@@ -3207,7 +3169,7 @@
         <v>45735</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N22" s="11">
         <v>45771</v>
@@ -3216,15 +3178,15 @@
         <v>45691</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>18</v>
@@ -3233,25 +3195,25 @@
         <v>45653</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I23" s="28">
         <v>46549</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>26</v>
@@ -3260,7 +3222,7 @@
         <v>45712</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N23" s="11">
         <v>45751</v>
@@ -3269,7 +3231,7 @@
         <v>45691</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>32</v>
@@ -3277,7 +3239,7 @@
     </row>
     <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>18</v>
@@ -3286,25 +3248,25 @@
         <v>45541</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I24" s="11">
         <v>46636</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>26</v>
@@ -3313,7 +3275,7 @@
         <v>45705</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N24" s="11">
         <v>45762</v>
@@ -3322,15 +3284,15 @@
         <v>45691</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>18</v>
@@ -3339,25 +3301,25 @@
         <v>45466</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I25" s="8">
         <v>45466</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>26</v>
@@ -3366,7 +3328,7 @@
         <v>45673</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N25" s="7">
         <v>45755</v>
@@ -3375,7 +3337,7 @@
         <v>45691</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="15" t="s">
         <v>32</v>
@@ -3383,7 +3345,7 @@
     </row>
     <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>18</v>
@@ -3392,34 +3354,34 @@
         <v>45665</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="28">
         <v>45700</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N26" s="7">
         <v>45755</v>
@@ -3428,7 +3390,7 @@
         <v>45691</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>32</v>
@@ -3436,34 +3398,34 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C27" s="28">
         <v>45758</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>26</v>
@@ -3472,7 +3434,7 @@
         <v>45758</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N27" s="7">
         <v>45771</v>
@@ -3481,7 +3443,7 @@
         <v>45775</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>32</v>
@@ -3489,7 +3451,7 @@
     </row>
     <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>18</v>
@@ -3498,25 +3460,25 @@
         <v>45505</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I28" s="8">
         <v>46395</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>26</v>
@@ -3525,7 +3487,7 @@
         <v>45720</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N28" s="8">
         <v>45771</v>
@@ -3534,7 +3496,7 @@
         <v>45691</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="15" t="s">
         <v>32</v>
@@ -3542,52 +3504,52 @@
     </row>
     <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C29" s="8">
         <v>43999</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I29" s="8">
         <v>44967</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L29" s="8">
         <v>45615</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O29" s="8">
         <v>45691</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="15" t="s">
         <v>32</v>
@@ -3595,7 +3557,7 @@
     </row>
     <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>18</v>
@@ -3604,25 +3566,25 @@
         <v>45266</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I30" s="7">
         <v>46232</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>26</v>
@@ -3631,16 +3593,16 @@
         <v>45693</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O30" s="8">
         <v>45691</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>32</v>
@@ -3648,7 +3610,7 @@
     </row>
     <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>18</v>
@@ -3657,25 +3619,25 @@
         <v>44861</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="I31" s="8">
         <v>45790</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>26</v>
@@ -3684,60 +3646,60 @@
         <v>45720</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O31" s="8">
         <v>45691</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q31" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I32" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="8">
-        <v>44861</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="8">
-        <v>45729</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="K32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="8">
-        <v>45748</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="N32" s="8">
         <v>45775</v>
@@ -3745,386 +3707,333 @@
       <c r="O32" s="8">
         <v>45691</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="P32" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="7">
+        <v>46992</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I33" s="7">
-        <v>46535</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L33" s="7">
-        <v>45714</v>
+        <v>45720</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N33" s="8">
         <v>45775</v>
       </c>
       <c r="O33" s="8">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11">
+        <v>45709</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="11">
+        <v>46804</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="7">
-        <v>45715</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="K34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="N34" s="8">
+        <v>45762</v>
+      </c>
+      <c r="O34" s="8">
+        <v>45713</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="7">
-        <v>46992</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="7">
-        <v>45720</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N34" s="8">
-        <v>45775</v>
-      </c>
-      <c r="O34" s="8">
-        <v>45715</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C35" s="11">
-        <v>45709</v>
+        <v>45417</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>323</v>
+        <v>337</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="11">
-        <v>46804</v>
+        <v>339</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L35" s="11">
-        <v>45735</v>
+        <v>45782</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="N35" s="8">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="O35" s="8">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11">
-        <v>45417</v>
+        <v>45776</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>350</v>
+        <v>322</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="11">
-        <v>45782</v>
+        <v>45776</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="N36" s="8">
-        <v>45783</v>
-      </c>
-      <c r="O36" s="8">
+        <v>324</v>
+      </c>
+      <c r="N36" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O36" s="11">
         <v>45714</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>301</v>
+      <c r="P36" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N37" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O37" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="I38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="N37" s="11">
-        <v>45776</v>
-      </c>
-      <c r="O37" s="11">
-        <v>45714</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45700</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I38" s="14">
-        <v>46795</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L38" s="14">
-        <v>45744</v>
+        <v>45779</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N38" s="8">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="O38" s="14">
-        <v>45701</v>
+        <v>45779</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q38" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="N39" s="8">
-        <v>45779</v>
-      </c>
-      <c r="O39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4198,7 +4107,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>18</v>
@@ -4207,25 +4116,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I2" s="14">
         <v>46795</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>26</v>
@@ -4234,7 +4143,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N2" s="8">
         <v>45777</v>
@@ -4243,7 +4152,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>32</v>
@@ -4256,10 +4165,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,45 +4229,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="11">
+        <v>46535</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7">
-        <v>45729</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -4366,146 +4275,146 @@
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="P2" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="11">
+        <v>46992</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I3" s="11">
-        <v>46535</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="11">
-        <v>46992</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>317</v>
+        <v>46804</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>57</v>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>320</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45776</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>321</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="30" t="s">
         <v>323</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="11">
-        <v>46804</v>
+        <v>191</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>324</v>
@@ -4513,128 +4422,75 @@
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>53</v>
+      <c r="L5" s="11">
+        <v>45776</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="N5" s="11">
+        <v>45776</v>
+      </c>
+      <c r="O5" s="11">
+        <v>45714</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="11">
-        <v>45776</v>
+        <v>45417</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="11">
-        <v>45776</v>
+        <v>45782</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="N6" s="11">
-        <v>45776</v>
-      </c>
-      <c r="O6" s="11">
+        <v>340</v>
+      </c>
+      <c r="N6" s="8">
+        <v>45783</v>
+      </c>
+      <c r="O6" s="8">
         <v>45714</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>301</v>
+      <c r="P6" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11">
-        <v>45417</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="11">
-        <v>45782</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="N7" s="8">
-        <v>45783</v>
-      </c>
-      <c r="O7" s="8">
-        <v>45714</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4711,34 +4567,34 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="14">
         <v>45779</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>26</v>
@@ -4747,7 +4603,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="N2" s="8">
         <v>45779</v>
@@ -4756,7 +4612,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="31" t="s">
         <v>32</v>
@@ -4888,34 +4744,34 @@
     </row>
     <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
@@ -4924,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -4941,55 +4797,55 @@
     </row>
     <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="11">
         <v>46779</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5001,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5065,78 +4921,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11">
+        <v>45086</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I2" s="11">
         <v>46164</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>69</v>
+      <c r="J2" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11">
+        <v>45761</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="8">
+        <v>45791</v>
+      </c>
+      <c r="O2" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45070</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>24</v>
@@ -5144,29 +5000,29 @@
       <c r="I3" s="11">
         <v>46166</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>79</v>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>53</v>
+      <c r="L3" s="11">
+        <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>30</v>
+        <v>347</v>
+      </c>
+      <c r="N3" s="8">
+        <v>45761</v>
+      </c>
+      <c r="O3" s="8">
+        <v>45691</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5242,7 +5098,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -5251,25 +5107,25 @@
         <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -5278,7 +5134,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -5287,15 +5143,15 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -5304,34 +5160,34 @@
         <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="11">
         <v>45790</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
@@ -5340,104 +5196,104 @@
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I4" s="11">
         <v>46172</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I5" s="11">
         <v>46232</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5446,60 +5302,60 @@
         <v>29</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I6" s="7">
         <v>46710</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>32</v>
@@ -5507,43 +5363,43 @@
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
         <v>46257</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>29</v>
@@ -5552,10 +5408,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5631,78 +5487,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I2" s="7">
         <v>45298</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>24</v>
@@ -5711,51 +5567,51 @@
         <v>45701</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
@@ -5764,69 +5620,69 @@
         <v>46174</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I5" s="11">
         <v>46145</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -5835,33 +5691,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -5870,60 +5726,60 @@
         <v>46613</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I7" s="11">
         <v>46783</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>26</v>
@@ -5932,113 +5788,113 @@
         <v>27</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I8" s="11">
         <v>46342</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>29</v>
@@ -6047,42 +5903,42 @@
         <v>29</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C10" s="24">
         <v>45782</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>26</v>
@@ -6091,7 +5947,7 @@
         <v>45789</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="N10" s="7">
         <v>45789</v>
@@ -6100,10 +5956,10 @@
         <v>45789</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6179,43 +6035,43 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -6224,113 +6080,113 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I3" s="11">
         <v>46315</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I4" s="11">
         <v>46549</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>
@@ -6338,55 +6194,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I5" s="11">
         <v>46636</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6462,52 +6318,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I2" s="7">
         <v>45466</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6515,52 +6371,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6639,52 +6495,52 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6692,52 +6548,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I3" s="11">
         <v>46395</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6816,52 +6672,52 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I2" s="7">
         <v>44967</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>32</v>
@@ -6869,52 +6725,52 @@
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I3" s="11">
         <v>46232</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>32</v>
@@ -6922,7 +6778,7 @@
     </row>
     <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
@@ -6931,43 +6787,43 @@
         <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="11">
         <v>45790</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>32</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68B428-3828-4FA5-AB82-56A50E75E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F2E2F-1707-40D7-A1F9-450563B87BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="305">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -130,9 +130,6 @@
     <t>DESPACHO</t>
   </si>
   <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
     <t>28/04/2025</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
 26/02/2025 POR MEDIO DEL CUAL SE LE SOLICITO AL PARTIDO DE LA U SE REMITE A UNA INFORMACION IMPORTANTE PARA PROCEDER A LA INSCRIPCIÓN DE LOS DIRECTIVOS DEPARTAMENTALES DEL VALLE DEL CAUCA
 06/02/2025 AUTO No 014 POR MEDIO DE LA CUAL SE LE SOLICITAN LAS PRUEBAS A DIRECCION DE INSPECCIÓN Y VIGILANCIA
 28/01/2025 - RECIBIDO POR EL ASESOR JUAN DAVID</t>
-  </si>
-  <si>
-    <t>19/03/2025</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
   </si>
   <si>
     <t>04/03/2025</t>
@@ -344,12 +335,6 @@
 20/01/2025 - RECIBIDO</t>
   </si>
   <si>
-    <t>20/02/2025</t>
-  </si>
-  <si>
-    <t>06/12/2023</t>
-  </si>
-  <si>
     <t>OFICIO</t>
   </si>
   <si>
@@ -357,9 +342,6 @@
   </si>
   <si>
     <t>26/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>26/02/2025</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-001275</t>
@@ -382,9 +364,6 @@
   <si>
     <t>06/03/2025 RESOLUCION No 00969
 28/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
   </si>
   <si>
     <t>CNE-E-DG-2023-021293</t>
@@ -407,9 +386,6 @@
     <t>2021-000146 - 2021-000147</t>
   </si>
   <si>
-    <t>07/01/2021</t>
-  </si>
-  <si>
     <t>SOLICITUD DE LIQUIDACION DE LA ORGANIZACIÓN POLITICA (OPCION CIUDADANA)</t>
   </si>
   <si>
@@ -424,23 +400,6 @@
 19/11/2024 EL AUTO 133 SE DEJA SIN DEFECTOS DESIGNACIÓN DEL LIQUIDADOR</t>
   </si>
   <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-07/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-28/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-18/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-06/03/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
-21/02/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
-22/01/2025 EL FONDO NACIONAL DE FINANCIACIÓN DE PARTIDOS POLÍTICOS, REMITIÓ RESPUESTA ACERCA DE LO SOLICITADO A TRAVÉS DEL AUTO NO.133 DE 2025. (EN ESPERA DE INDICACIONES DEL MAGISTRADO)
-16/01/2024 SE REMITIÓ OFICIO NO. 006 DE REITERACIÓN PARA FIRMA DEL MAGISTRADO CÉSAR LORDUY
-SHANNERY INDICO REALIZAR OFICIO DE REITERACIÓN</t>
-  </si>
-  <si>
-    <t>09/01/2025</t>
-  </si>
-  <si>
     <t>JHON TRUJILLO</t>
   </si>
   <si>
@@ -448,9 +407,6 @@
   </si>
   <si>
     <t>CNE-E-DG-2022-006531</t>
-  </si>
-  <si>
-    <t>07/03/2022</t>
   </si>
   <si>
     <t>DENUNCIA POR IRREGULARIDAD POR LA FINANCIACION DE CAMPAÑA EN CONTRA DE LA SEÑORA MAYRA ALEJANDRA GAONA PINZÓN, CANDIDATO A LA CAMARA TRANSITORIA DE PAZ</t>
@@ -463,17 +419,6 @@
 20/02/2025 VIENE DERROTADO DEL DESPACHO DEL MAGISTRADO ALFONSO CAMPO</t>
   </si>
   <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025 PENDIENTE DE COMUNICACIONES
-07/04/2025 PENDIENTE DE COMUNICACIONES
-28/03/2025 PENDIENTE DE COMUNICACIONES
-18/03/2025 PONENCIA RADICADA PARA DISCUSIÓN EL 20 DE MARZO DE 2025
-06/03/2025 SIGUE PENDIENTE PONENCIA EN PROYECCIÓN
-20/02/2025 PENDIENTE DE PROYECCIÓN</t>
-  </si>
-  <si>
     <t>DERROTADO DEL MAGISTRADO ALFONSO CAMPO ENCARGADO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -483,23 +428,10 @@
     <t>PRESUNTA VULNERACIÓN AL ARTÍCULO 18 DE LA LEY 1475 DE 2011, UNA VEZ REVISADO INFORME DECLARACIÓN DE PATRIMONIO, INGRESOS Y GASTOS DE FUNCIONAMIENTO VIGENCIA 2022 DEL PARTIDO COLOMBIA RENACIENTE</t>
   </si>
   <si>
-    <t>28/04/2025 PROYECTANDO RESOLUCIÓN
-07/04/2025 AUN SE ESTA PROYECTANDO LA RESOLUCION
-28/03/2025 PROYECTAR RESOLUCION
-18/03/2025 ESTA EN ESPERA DE INFORME DEL CONTADOR FEISAL
-06/03/2025 EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>27/02/2025</t>
-  </si>
-  <si>
     <t>ORIGEN: CAMILA REYES DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-010332</t>
-  </si>
-  <si>
-    <t>03/05/2023</t>
   </si>
   <si>
     <t>RECONOMIENTO Y INSCRIPCION DEL NUEVO PRESIDENTE Y REPRESANTE LEGAL DEL PARTIDO ESPERANZA DEMÓCRATICA</t>
@@ -520,29 +452,10 @@
  28/11/2024 OFICIO N° 445 RESPUESTA MIGUEL ANGEL PEREZ GAMBOA</t>
   </si>
   <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 EN ESPERA DE TERMINOS PARA ARCHIVO
-07/04/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-28/03/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-18/03/2025 EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-06/03/2025 PONENCIA RESUELVE RECURSO CONTRA RESOLUCION No 00173 DE 2025 EN REVISIÓN DE SHANNERY
-ENVIADO A REVISIÓN A LAURA ORTEGON EL DÍA 20/02/2025
-13/02/2025 EN PROYECCION DE RESOLUCIÓN QUE RESUELVE RECURSOS DE  REPOSICIÓN INTERPUESTOS
-06/02/2025 - EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN DE  RECURSOS DE REPOSICIÓN.
-27/01/2025 EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN RE RECURSOS DE REPOSICIÓN.
-8/01/2025 SE RADICO PONENCIA QUE RESUELVE RECURSO DE REPOSICIÓN CONTRA LA RESOLUCIÓN QUE RECHAZO POR EXTEMPORANEO LAS SOLICITUDES DE IMPUGNACIÓN DE LOS SEÑORES JULIO CARRASCAL, TEMILDA VANEGAS
-8/01/2025 SE REMITIÓ A REVISIÓN DE LAURA ORTEGON PONENCIA QUE RESUELVE EL RECURSO DE REPOSICIÓN INTERPUESTO CONTRA LA RESOLUCIÓN QUE ACEPTO EL DESISTIMIENTO DEL SEÑOR CARLOS ENRIQUE MC'NISH </t>
-  </si>
-  <si>
     <t>ORIGEN: DORA GARCIA DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-016640</t>
-  </si>
-  <si>
-    <t>14/08/2024</t>
   </si>
   <si>
     <t>SOLICITUD DE INVESTIGACIÓN POR FINANCIACIÓN DE LA CAMPAÑA AL CONCEJO DE PARATEBUENO - CUNDINAMARCA DEL CONCEJAL ELECTO, SEÑOR JULIO TORO, POR EL PARTIDO INDEPENDIENTES.</t>
@@ -563,14 +476,6 @@
     <t>24/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">24/04/2025 EN ESPERA DE NOTIFICACION
-07/04/2025 APLAZADA EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACION
-28/03/2025 ESTA EN DISCUSIÓN PARA SALA EL 1 DE ABRIL
-18/03/2025 RADICADA PONENCIA QUE DA POR TERMINADO
-06/03/2025 EN PROYECCIÓN
-06/02/2025 - AUTO DE REITERACIÒN EN REVISIÓN DE SHANNERY </t>
-  </si>
-  <si>
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -593,11 +498,6 @@
 19/03/2025 RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
   </si>
   <si>
-    <t>22/04/2025 EN ESPERA DE NOTIFICACIONES
-07/04/2025 EN ESPERA DE TERMINOS
-28/03/2025 PONENCIA DE APERTURA VA A SER DISCUTIDA EN SALA EL 1 DE ABRIL</t>
-  </si>
-  <si>
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -626,15 +526,6 @@
 17/03/2025 EN ESPERA DE SANCIÓN</t>
   </si>
   <si>
-    <t>28/04/2025 PENDIENTE RESOLUCIÓN SI DECIDE SANCIONAR
-07/04/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
-31/03/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
-17/03/2025 PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR</t>
-  </si>
-  <si>
-    <t>17/03/2025</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-007390</t>
   </si>
   <si>
@@ -651,9 +542,6 @@
   </si>
   <si>
     <t>22/04/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 EN REVISIÓN </t>
   </si>
   <si>
     <t>CNE-E-DG-2022-022511 - SANTANDER</t>
@@ -1082,9 +970,6 @@
   </si>
   <si>
     <t>DIEGO FABIAN CASTILLO QUINTERO</t>
-  </si>
-  <si>
-    <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
   </si>
   <si>
     <t>14/04/2025AUTO No 034 -TRASLADO DE ALEGATOS PUBLICIDAD
@@ -1115,19 +1000,6 @@
 20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
 05/02/2025 SE ENVIO A RADICAR A SALA 
 31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
-  </si>
-  <si>
-    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
-04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
-27/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
-28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
-07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
-28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
   </si>
   <si>
     <t>14/05/2025 AUTO REITERA EN REVISIÓN DE MIGUEL
@@ -1290,6 +1162,92 @@
   </si>
   <si>
     <t>15/05/2025 RECIBIDO POR LA ASESORA ANYI AGURRE</t>
+  </si>
+  <si>
+    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS
+04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
+27/02/2025 RECIBIDO</t>
+  </si>
+  <si>
+    <t>16/05/2025 SECRETARÍAALLEGA OFICIO DE NOTIFICACIÓN DE AUTO N° 043 
+AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS 
+07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS 
+28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
+07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
+28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
+  </si>
+  <si>
+    <t>16/05/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+07/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+28/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+18/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+06/03/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
+21/02/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
+22/01/2025 EL FONDO NACIONAL DE FINANCIACIÓN DE PARTIDOS POLÍTICOS, REMITIÓ RESPUESTA ACERCA DE LO SOLICITADO A TRAVÉS DEL AUTO NO.133 DE 2025. (EN ESPERA DE INDICACIONES DEL MAGISTRADO)
+16/01/2024 SE REMITIÓ OFICIO NO. 006 DE REITERACIÓN PARA FIRMA DEL MAGISTRADO CÉSAR LORDUY
+SHANNERY INDICO REALIZAR OFICIO DE REITERACIÓN</t>
+  </si>
+  <si>
+    <t>16/05/2025 PENDIENTE DE COMUNICACIONES
+07/04/2025 PENDIENTE DE COMUNICACIONES
+28/03/2025 PENDIENTE DE COMUNICACIONES
+18/03/2025 PONENCIA RADICADA PARA DISCUSIÓN EL 20 DE MARZO DE 2025
+06/03/2025 SIGUE PENDIENTE PONENCIA EN PROYECCIÓN
+20/02/2025 PENDIENTE DE PROYECCIÓN</t>
+  </si>
+  <si>
+    <t>16/05/2025 PONENCIA DE SANCION EN REVISIÓN DE SHANN
+28/04/2025 PROYECTANDO RESOLUCIÓN
+07/04/2025 AUN SE ESTA PROYECTANDO LA RESOLUCION
+28/03/2025 PROYECTAR RESOLUCION
+18/03/2025 ESTA EN ESPERA DE INFORME DEL CONTADOR FEISAL
+06/03/2025 EN REVISIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN ESPERA DE TÉRMINOS PARA ARCHIVO
+28/04/2025 EN ESPERA DE TERMINOS PARA ARCHIVO
+07/04/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+28/03/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+18/03/2025 EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+06/03/2025 PONENCIA RESUELVE RECURSO CONTRA RESOLUCION No 00173 DE 2025 EN REVISIÓN DE SHANNERY
+ENVIADO A REVISIÓN A LAURA ORTEGON EL DÍA 20/02/2025
+13/02/2025 EN PROYECCION DE RESOLUCIÓN QUE RESUELVE RECURSOS DE  REPOSICIÓN INTERPUESTOS
+06/02/2025 - EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN DE  RECURSOS DE REPOSICIÓN.
+27/01/2025 EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN RE RECURSOS DE REPOSICIÓN.
+8/01/2025 SE RADICO PONENCIA QUE RESUELVE RECURSO DE REPOSICIÓN CONTRA LA RESOLUCIÓN QUE RECHAZO POR EXTEMPORANEO LAS SOLICITUDES DE IMPUGNACIÓN DE LOS SEÑORES JULIO CARRASCAL, TEMILDA VANEGAS
+8/01/2025 SE REMITIÓ A REVISIÓN DE LAURA ORTEGON PONENCIA QUE RESUELVE EL RECURSO DE REPOSICIÓN INTERPUESTO CONTRA LA RESOLUCIÓN QUE ACEPTO EL DESISTIMIENTO DEL SEÑOR CARLOS ENRIQUE MC'NISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN ESPERA DE RECURSO DE REPOSICIÓN
+24/04/2025 EN ESPERA DE NOTIFICACION
+07/04/2025 APLAZADA EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACION
+28/03/2025 ESTA EN DISCUSIÓN PARA SALA EL 1 DE ABRIL
+18/03/2025 RADICADA PONENCIA QUE DA POR TERMINADO
+06/03/2025 EN PROYECCIÓN
+06/02/2025 - AUTO DE REITERACIÒN EN REVISIÓN DE SHANNERY </t>
+  </si>
+  <si>
+    <t>16/05/2025 EN ESPERA DE NOTIFICACIONES DE RESOLUCION N° 1439
+22/04/2025 EN ESPERA DE NOTIFICACIONES
+07/04/2025 EN ESPERA DE TERMINOS
+28/03/2025 PONENCIA DE APERTURA VA A SER DISCUTIDA EN SALA EL 1 DE ABRIL</t>
+  </si>
+  <si>
+    <t>16/05/2025 EN REVISIÓN DE SHANN PONENCIA DE SANCIÓN A FIRMA ENCUESTADORA
+28/04/2025 PENDIENTE RESOLUCIÓN SI DECIDE SANCIONAR
+07/04/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
+31/03/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
+17/03/2025 PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN REVISION DE SHANN RESOLUCION QUE AVOCA CONOCIMIENTO
+28/04/2025 EN REVISIÓN </t>
+  </si>
+  <si>
+    <t>15/05/2025 AUTO N° 046 AVOCA CONOCIMIENTO
+12/05/ 2025 RECIBIDO POR EL ASESOR</t>
   </si>
 </sst>
 </file>
@@ -1892,9 +1850,9 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="A7:Q7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1977,7 +1935,7 @@
     </row>
     <row r="2" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>18</v>
@@ -1986,25 +1944,25 @@
         <v>45086</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="11">
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -2013,7 +1971,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -2022,15 +1980,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>18</v>
@@ -2039,16 +1997,16 @@
         <v>45070</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -2057,7 +2015,7 @@
         <v>46166</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
@@ -2066,7 +2024,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -2075,15 +2033,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -2092,25 +2050,25 @@
         <v>45684</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I4" s="11">
         <v>46710</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>25</v>
@@ -2119,7 +2077,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -2128,15 +2086,15 @@
         <v>45685</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
@@ -2145,25 +2103,25 @@
         <v>45541</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="I5" s="11">
         <v>46636</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -2172,7 +2130,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -2181,15 +2139,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -2198,25 +2156,25 @@
         <v>45100</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" s="11">
         <v>46172</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -2225,7 +2183,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -2234,42 +2192,42 @@
         <v>45691</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11">
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -2278,7 +2236,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -2287,15 +2245,15 @@
         <v>45691</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2304,25 +2262,25 @@
         <v>44861</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="7">
         <v>45790</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>25</v>
@@ -2331,7 +2289,7 @@
         <v>45775</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
         <v>45775</v>
@@ -2340,15 +2298,15 @@
         <v>45691</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -2357,25 +2315,25 @@
         <v>44861</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="7">
         <v>45790</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>25</v>
@@ -2384,7 +2342,7 @@
         <v>45705</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N9" s="7">
         <v>45775</v>
@@ -2393,15 +2351,15 @@
         <v>45691</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>18</v>
@@ -2410,25 +2368,25 @@
         <v>44203</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I10" s="18">
         <v>45298</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>25</v>
@@ -2437,24 +2395,24 @@
         <v>45698</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="N10" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O10" s="19">
         <v>45666</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>18</v>
@@ -2463,16 +2421,16 @@
         <v>44627</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>23</v>
@@ -2481,7 +2439,7 @@
         <v>45701</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>25</v>
@@ -2490,24 +2448,24 @@
         <v>45744</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="N11" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O11" s="19">
         <v>45708</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>18</v>
@@ -2516,16 +2474,16 @@
         <v>45266</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>23</v>
@@ -2534,7 +2492,7 @@
         <v>46174</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>25</v>
@@ -2543,24 +2501,24 @@
         <v>45714</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="N12" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O12" s="19">
         <v>45715</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>18</v>
@@ -2569,51 +2527,51 @@
         <v>45049</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I13" s="7">
         <v>46145</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7">
         <v>45734</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="N13" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O13" s="8">
         <v>45691</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -2622,16 +2580,16 @@
         <v>45518</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>23</v>
@@ -2640,7 +2598,7 @@
         <v>46613</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>25</v>
@@ -2649,24 +2607,24 @@
         <v>45771</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="N14" s="7">
-        <v>45771</v>
+        <v>45793</v>
       </c>
       <c r="O14" s="8">
         <v>45691</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
@@ -2675,25 +2633,25 @@
         <v>45688</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I15" s="7">
         <v>46783</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>25</v>
@@ -2702,24 +2660,24 @@
         <v>45748</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="N15" s="7">
-        <v>45769</v>
+        <v>45793</v>
       </c>
       <c r="O15" s="8">
         <v>45744</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>18</v>
@@ -2728,25 +2686,25 @@
         <v>45246</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="I16" s="23">
         <v>46342</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>25</v>
@@ -2755,51 +2713,51 @@
         <v>45735</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="N16" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O16" s="25">
         <v>45733</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C17" s="23">
         <v>45769</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>25</v>
@@ -2808,77 +2766,77 @@
         <v>45769</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="N17" s="7">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O17" s="7">
         <v>45775</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C18" s="23">
         <v>45782</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="23">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="N18" s="7">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="O18" s="7">
         <v>45789</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>18</v>
@@ -2887,25 +2845,25 @@
         <v>45246</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8">
         <v>45790</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>25</v>
@@ -2914,7 +2872,7 @@
         <v>45754</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="N19" s="7">
         <v>45775</v>
@@ -2923,15 +2881,15 @@
         <v>45691</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>18</v>
@@ -2940,25 +2898,25 @@
         <v>45264</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="I20" s="25">
         <v>46315</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>25</v>
@@ -2967,7 +2925,7 @@
         <v>45735</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="N20" s="11">
         <v>45792</v>
@@ -2976,15 +2934,15 @@
         <v>45691</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>18</v>
@@ -2993,25 +2951,25 @@
         <v>45653</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I21" s="27">
         <v>46549</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>25</v>
@@ -3020,7 +2978,7 @@
         <v>45712</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N21" s="11">
         <v>45792</v>
@@ -3029,15 +2987,15 @@
         <v>45691</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>18</v>
@@ -3046,25 +3004,25 @@
         <v>45466</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="I22" s="8">
         <v>45466</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>25</v>
@@ -3073,7 +3031,7 @@
         <v>45673</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="N22" s="7">
         <v>45755</v>
@@ -3082,15 +3040,15 @@
         <v>45691</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>18</v>
@@ -3099,34 +3057,34 @@
         <v>45665</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L23" s="27">
         <v>45700</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N23" s="7">
         <v>45755</v>
@@ -3135,15 +3093,15 @@
         <v>45691</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>18</v>
@@ -3152,25 +3110,25 @@
         <v>45684</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I24" s="11">
         <v>46779</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>25</v>
@@ -3179,7 +3137,7 @@
         <v>45735</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N24" s="8">
         <v>45792</v>
@@ -3188,42 +3146,42 @@
         <v>45688</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C25" s="27">
         <v>45758</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>25</v>
@@ -3232,7 +3190,7 @@
         <v>45758</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="N25" s="7">
         <v>45771</v>
@@ -3241,15 +3199,15 @@
         <v>45775</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>18</v>
@@ -3258,25 +3216,25 @@
         <v>45505</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="I26" s="8">
         <v>46395</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>25</v>
@@ -3285,7 +3243,7 @@
         <v>45720</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="N26" s="8">
         <v>45771</v>
@@ -3294,51 +3252,51 @@
         <v>45691</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C27" s="8">
         <v>43999</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I27" s="8">
         <v>44967</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L27" s="8">
         <v>45615</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N27" s="8">
         <v>45791</v>
@@ -3347,15 +3305,15 @@
         <v>45691</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>18</v>
@@ -3364,25 +3322,25 @@
         <v>45266</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I28" s="7">
         <v>46232</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>25</v>
@@ -3391,7 +3349,7 @@
         <v>45693</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="N28" s="8">
         <v>45791</v>
@@ -3400,15 +3358,15 @@
         <v>45691</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>18</v>
@@ -3417,25 +3375,25 @@
         <v>44861</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="I29" s="8">
         <v>45790</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>25</v>
@@ -3444,7 +3402,7 @@
         <v>45720</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="N29" s="8">
         <v>45761</v>
@@ -3453,15 +3411,15 @@
         <v>45691</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>18</v>
@@ -3470,25 +3428,25 @@
         <v>45440</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="I30" s="7">
         <v>46535</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>25</v>
@@ -3497,7 +3455,7 @@
         <v>45714</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="N30" s="8">
         <v>45775</v>
@@ -3506,15 +3464,15 @@
         <v>45691</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>18</v>
@@ -3523,16 +3481,16 @@
         <v>45715</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>23</v>
@@ -3541,7 +3499,7 @@
         <v>46992</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>25</v>
@@ -3550,24 +3508,24 @@
         <v>45784</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" s="8">
-        <v>45791</v>
+        <v>45793</v>
       </c>
       <c r="O31" s="8">
         <v>45715</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>18</v>
@@ -3576,16 +3534,16 @@
         <v>45709</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>23</v>
@@ -3594,7 +3552,7 @@
         <v>46804</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>25</v>
@@ -3603,7 +3561,7 @@
         <v>45735</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="N32" s="8">
         <v>45761</v>
@@ -3612,42 +3570,42 @@
         <v>45713</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="11">
         <v>45417</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>25</v>
@@ -3656,7 +3614,7 @@
         <v>45786</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N33" s="8">
         <v>45791</v>
@@ -3665,42 +3623,42 @@
         <v>45714</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11">
         <v>45776</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G34" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>25</v>
@@ -3709,7 +3667,7 @@
         <v>45786</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="N34" s="11">
         <v>45791</v>
@@ -3718,42 +3676,42 @@
         <v>45714</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C35" s="11">
         <v>45758</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>25</v>
@@ -3762,7 +3720,7 @@
         <v>45775</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="N35" s="8">
         <v>45792</v>
@@ -3771,10 +3729,10 @@
         <v>45775</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
@@ -3815,7 +3773,7 @@
         <v>45748</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="N36" s="8">
         <v>45792</v>
@@ -3824,15 +3782,15 @@
         <v>45691</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>18</v>
@@ -3841,25 +3799,25 @@
         <v>45161</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I37" s="7">
         <v>46257</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>25</v>
@@ -3868,7 +3826,7 @@
         <v>45370</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N37" s="8">
         <v>45792</v>
@@ -3877,15 +3835,15 @@
         <v>45691</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>18</v>
@@ -3894,25 +3852,25 @@
         <v>45700</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="I38" s="14">
         <v>46795</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>25</v>
@@ -3921,7 +3879,7 @@
         <v>45744</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="N38" s="8">
         <v>45777</v>
@@ -3930,42 +3888,42 @@
         <v>45701</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="14">
         <v>45779</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>25</v>
@@ -3974,7 +3932,7 @@
         <v>45779</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="N39" s="8">
         <v>45779</v>
@@ -3983,10 +3941,10 @@
         <v>45779</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q9"/>
     </sheetView>
   </sheetViews>
@@ -4064,7 +4022,7 @@
     </row>
     <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -4073,25 +4031,25 @@
         <v>45440</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="I2" s="7">
         <v>46535</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
@@ -4100,7 +4058,7 @@
         <v>45714</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="N2" s="8">
         <v>45775</v>
@@ -4109,15 +4067,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
@@ -4126,16 +4084,16 @@
         <v>45715</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>23</v>
@@ -4144,7 +4102,7 @@
         <v>46992</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -4153,24 +4111,24 @@
         <v>45784</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N3" s="8">
-        <v>45791</v>
+        <v>45793</v>
       </c>
       <c r="O3" s="8">
         <v>45715</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -4179,16 +4137,16 @@
         <v>45709</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -4197,7 +4155,7 @@
         <v>46804</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>25</v>
@@ -4206,7 +4164,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -4215,42 +4173,42 @@
         <v>45713</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11">
         <v>45417</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -4259,7 +4217,7 @@
         <v>45786</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N5" s="8">
         <v>45791</v>
@@ -4268,42 +4226,42 @@
         <v>45714</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="11">
         <v>45776</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G6" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -4312,7 +4270,7 @@
         <v>45786</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="N6" s="11">
         <v>45791</v>
@@ -4321,42 +4279,42 @@
         <v>45714</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C7" s="11">
         <v>45758</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -4365,7 +4323,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="N7" s="8">
         <v>45792</v>
@@ -4374,10 +4332,10 @@
         <v>45775</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4418,7 +4376,7 @@
         <v>45748</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="N8" s="8">
         <v>45792</v>
@@ -4427,15 +4385,15 @@
         <v>45691</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -4444,25 +4402,25 @@
         <v>45161</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="7">
         <v>46257</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>25</v>
@@ -4471,7 +4429,7 @@
         <v>45370</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N9" s="8">
         <v>45792</v>
@@ -4480,10 +4438,10 @@
         <v>45691</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4559,34 +4517,34 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14">
         <v>45779</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>25</v>
@@ -4595,7 +4553,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="N2" s="8">
         <v>45779</v>
@@ -4604,10 +4562,10 @@
         <v>45779</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4619,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -4683,7 +4641,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>18</v>
@@ -4692,25 +4650,25 @@
         <v>45086</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="11">
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -4719,7 +4677,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -4728,15 +4686,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>18</v>
@@ -4745,16 +4703,16 @@
         <v>45070</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -4763,7 +4721,7 @@
         <v>46166</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
@@ -4772,7 +4730,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -4781,15 +4739,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -4798,25 +4756,25 @@
         <v>45684</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I4" s="11">
         <v>46710</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>25</v>
@@ -4825,7 +4783,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -4834,15 +4792,15 @@
         <v>45685</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
@@ -4851,25 +4809,25 @@
         <v>45541</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="I5" s="11">
         <v>46636</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -4878,7 +4836,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -4887,15 +4845,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -4904,25 +4862,25 @@
         <v>45100</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" s="11">
         <v>46172</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -4931,7 +4889,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -4940,42 +4898,42 @@
         <v>45691</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11">
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -4984,7 +4942,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -4993,10 +4951,10 @@
         <v>45691</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5072,108 +5030,108 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="11">
         <v>45790</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5185,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,238 +5206,238 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18">
+        <v>44203</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="18">
+        <v>45298</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="18">
+        <v>45698</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O2" s="19">
+        <v>45666</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="18">
+        <v>44627</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="18">
+        <v>45701</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="18">
+        <v>45744</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O3" s="19">
+        <v>45708</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18">
+        <v>45266</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="7">
-        <v>45298</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="H4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="18">
+        <v>46174</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="18">
+        <v>45714</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O4" s="19">
+        <v>45715</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="8" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="I5" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="K5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="7">
+        <v>45734</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="N5" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O5" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45701</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11">
-        <v>46174</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="11">
-        <v>46145</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>138</v>
+      <c r="C6" s="11">
+        <v>45518</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -5488,240 +5446,240 @@
         <v>46613</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11">
+        <v>45771</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O6" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45688</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46783</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7">
+        <v>45748</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O7" s="8">
+        <v>45744</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45246</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="23">
+        <v>46342</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="23">
+        <v>45735</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O8" s="25">
+        <v>45733</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="23">
+        <v>45769</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="E9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="H9" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="9" t="s">
+      <c r="I9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="11">
-        <v>46783</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="11">
-        <v>46342</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="K9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="23">
+        <v>45769</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45793</v>
+      </c>
+      <c r="O9" s="7">
+        <v>45775</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C10" s="23">
         <v>45782</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="23">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="N10" s="7">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="O10" s="7">
         <v>45789</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5797,55 +5755,55 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7">
         <v>45790</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5921,7 +5879,7 @@
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>18</v>
@@ -5930,25 +5888,25 @@
         <v>45264</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="I2" s="25">
         <v>46315</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>25</v>
@@ -5957,7 +5915,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="N2" s="11">
         <v>45792</v>
@@ -5966,15 +5924,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -5983,25 +5941,25 @@
         <v>45653</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I3" s="27">
         <v>46549</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>25</v>
@@ -6010,7 +5968,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N3" s="11">
         <v>45792</v>
@@ -6019,15 +5977,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>18</v>
@@ -6036,25 +5994,25 @@
         <v>45466</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="I4" s="8">
         <v>45466</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
@@ -6063,7 +6021,7 @@
         <v>45673</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="N4" s="7">
         <v>45755</v>
@@ -6072,15 +6030,15 @@
         <v>45691</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>18</v>
@@ -6089,34 +6047,34 @@
         <v>45665</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L5" s="27">
         <v>45700</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N5" s="7">
         <v>45755</v>
@@ -6125,15 +6083,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -6142,25 +6100,25 @@
         <v>45684</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="11">
         <v>46779</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -6169,7 +6127,7 @@
         <v>45735</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N6" s="8">
         <v>45792</v>
@@ -6178,10 +6136,10 @@
         <v>45688</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6257,108 +6215,108 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="I3" s="11">
         <v>46395</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6434,43 +6392,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C2" s="8">
         <v>43999</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I2" s="8">
         <v>44967</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="8">
         <v>45615</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -6479,15 +6437,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
@@ -6496,25 +6454,25 @@
         <v>45266</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I3" s="7">
         <v>46232</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -6523,7 +6481,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="N3" s="8">
         <v>45791</v>
@@ -6532,15 +6490,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>18</v>
@@ -6549,25 +6507,25 @@
         <v>44861</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="8">
         <v>45790</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
@@ -6576,7 +6534,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -6585,10 +6543,10 @@
         <v>45691</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6664,7 +6622,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>18</v>
@@ -6673,25 +6631,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="I2" s="14">
         <v>46795</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>25</v>
@@ -6700,7 +6658,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="N2" s="8">
         <v>45777</v>
@@ -6709,10 +6667,10 @@
         <v>45701</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F2E2F-1707-40D7-A1F9-450563B87BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA1E72-7871-4E14-B660-E827DBEF5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="298">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -651,56 +651,7 @@
     <t>INPUGNACIONES</t>
   </si>
   <si>
-    <t>16/01/2025- AUTO N° 006 DE 2025- CORRE TRASLADO DE PRUEBAS
-29/08/2024: AUTO NO 109 DEL 13-08/2024 PRUEBAS DE IMPUGNACIÓN.
-01/02/2024  SE PROFIRIO AUTO NO 006 REITERANDO DECRETO DE PRUEBAS; 
-SE RECIBIERON HASTA EL 25 DE ABRIL DEL AÑO EN CURSO SOPORTES DE COMUNICACIÓN. SE PROFIRIÓ. AUTO N 109 DEL 13 DE AGOSTO DE 2024, EL CUAL DECRETÓ LA PRÁCTICA DE UNAS PRUEBAS PARA MEJOR PROVEER. SE NOTIFICÓ EL 28 DE AGOSTO DE 2024. SE PROFIRIÓ ACTO ADMINISTRATIVO NO 127 DEL 23 DE OCTUBRE DE 2024, A TRAVÉS DEL CUAL SE INSTA AL MOVIMIENTO COLOMBIA HUMANA A DAR CUMPLIMIENTO A LO CONMINADO EN EL ARTÍCULO PRIMERO DEL AUTO 109.</t>
-  </si>
-  <si>
-    <t>08/04/2025 PENDIENTE RESOLUCIÓN PARA SER FIRMADA Y PENDIENTE DE NOTIFICACIONES
-06/03/2025 - ENVIADA A RADICAR POR MONICA RESOLUCIÓN QUE CONCEDE IMPUGNACIÓN
-28/02/2025 RESOLUCIÓN CONCEDIENDO IMPUGNACIÓN, ENVIADA A REVISIÓN DE MIGUEL EL 27 DE FEBRERO DE 2025
-AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
-16/01/2025 YA LLEGARON LAS NOTIFICACIONES
-15/01/2025 SE DEBE CORRER TRASLADO</t>
-  </si>
-  <si>
     <t>LAURA ORTEGON</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-000141</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE REVOCATORIA DE INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO, EL SEÑOR JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025</t>
-  </si>
-  <si>
-    <t>PUTUMAYO</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO CABRERA</t>
-  </si>
-  <si>
-    <t>REVOCATORIA</t>
-  </si>
-  <si>
-    <t>19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 - RESOLUCIÓN No 00554 ESTARSE A LO RESUELTO EN LAS RESOLUCIONES No 00267 y 00479  DE 2025 QUE DECIDIERON NO REVOCAR LA INSCRIPCIÓN DE LA CANDIDATURA  A LA GOGERNACIÓN DE JHON GABRIEL MOLINA ACOSTA - NOTIFICADA EN AUDIENCIA DEL 12/02/2025
- 06/02/2025 - RESOLUCIÓN 00479 POR MEDIO DE LA CUAL NO SE REPONE LA RESOLUCIÓN 00262 DEL 29 DE ENERO DE 2025 
-29/01/2025 - RESOLUCIÓN No 0262 - NO SE REVOCA LA INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO,  JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025
-15/01/2025- AUTO 009- CORRE TRASLADO DE PRUEBAS
-10/01/2025- AUTO NO 002- CORRIGE AUTO 001 Y COMUNICA A LAS AGRUPACIONES POLÍTICAS AICO, MAIZ Y PARTIDO CONSERVADOR
-08/01/2025 AUTO NO. 001 DEL 8 DE ENERO DE 2025 AVOCA CONOCIMIENTO Y SOLICITA PRUEBA</t>
-  </si>
-  <si>
-    <t>08/04/2025 PENDIENTE PARA ARCHIVO
-06/03/2025 - PENDIENTE DE ARCHIVO  ENTREGA A LUISA CUCHIBAQUE 
-28/02/2025 SIGUE EN ESPERA DE OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 NOTIFICADA EN AUDIENCIA
-06/02/2025 PENDIENTE DE DECIDIR RESOLUCIÓN DE ATENERSE A LO RESUELTO 
-SE RECIBIÓ RECURSO DE REPOSICIÓN EL DÍA 30 DE ENERO DE 2025, ACTUALMENTE SE ESTÁ RESOLVIENDO RECURSO
-23/01/2025 CORRIENDO TERMINOS
-CORRIENDO TÉRMINOS Y EN ESPERA DE COMUNICACIONES</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-006989</t>
@@ -1248,6 +1199,22 @@
   <si>
     <t>15/05/2025 AUTO N° 046 AVOCA CONOCIMIENTO
 12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
+  <si>
+    <t>01/04/2025 REOSLUCION 01459 QUE CONCEDE IMPUGNACION
+16/01/2025- AUTO N° 006 DE 2025- CORRE TRASLADO DE PRUEBAS
+29/08/2024: AUTO NO 109 DEL 13-08/2024 PRUEBAS DE IMPUGNACIÓN.
+01/02/2024  SE PROFIRIO AUTO NO 006 REITERANDO DECRETO DE PRUEBAS; 
+SE RECIBIERON HASTA EL 25 DE ABRIL DEL AÑO EN CURSO SOPORTES DE COMUNICACIÓN. SE PROFIRIÓ. AUTO N 109 DEL 13 DE AGOSTO DE 2024, EL CUAL DECRETÓ LA PRÁCTICA DE UNAS PRUEBAS PARA MEJOR PROVEER. SE NOTIFICÓ EL 28 DE AGOSTO DE 2024. SE PROFIRIÓ ACTO ADMINISTRATIVO NO 127 DEL 23 DE OCTUBRE DE 2024, A TRAVÉS DEL CUAL SE INSTA AL MOVIMIENTO COLOMBIA HUMANA A DAR CUMPLIMIENTO A LO CONMINADO EN EL ARTÍCULO PRIMERO DEL AUTO 109.</t>
+  </si>
+  <si>
+    <t>06/05/2025 RECIBIDA CONSTANCIA DE NOTIFICACION DE LA REOSLUCION 01459 QUE CONCEDE IMPUGNACION
+08/04/2025 PENDIENTE RESOLUCIÓN PARA SER FIRMADA Y PENDIENTE DE NOTIFICACIONES
+06/03/2025 - ENVIADA A RADICAR POR MONICA RESOLUCIÓN QUE CONCEDE IMPUGNACIÓN
+28/02/2025 RESOLUCIÓN CONCEDIENDO IMPUGNACIÓN, ENVIADA A REVISIÓN DE MIGUEL EL 27 DE FEBRERO DE 2025
+AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
+16/01/2025 YA LLEGARON LAS NOTIFICACIONES
+15/01/2025 SE DEBE CORRER TRASLADO</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1816,10 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:Q39"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1962,7 +1929,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -1971,7 +1938,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -2024,7 +1991,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -2077,7 +2044,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -2089,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -2130,7 +2097,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -2142,7 +2109,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
@@ -2183,7 +2150,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -2195,12 +2162,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -2209,7 +2176,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -2218,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -2227,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -2236,7 +2203,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -2395,7 +2362,7 @@
         <v>45698</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="N10" s="7">
         <v>45793</v>
@@ -2448,7 +2415,7 @@
         <v>45744</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N11" s="7">
         <v>45793</v>
@@ -2501,7 +2468,7 @@
         <v>45714</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N12" s="7">
         <v>45793</v>
@@ -2554,7 +2521,7 @@
         <v>45734</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N13" s="7">
         <v>45793</v>
@@ -2607,7 +2574,7 @@
         <v>45771</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N14" s="7">
         <v>45793</v>
@@ -2660,7 +2627,7 @@
         <v>45748</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N15" s="7">
         <v>45793</v>
@@ -2713,7 +2680,7 @@
         <v>45735</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N16" s="7">
         <v>45793</v>
@@ -2766,7 +2733,7 @@
         <v>45769</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N17" s="7">
         <v>45793</v>
@@ -2783,7 +2750,7 @@
     </row>
     <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>141</v>
@@ -2792,7 +2759,7 @@
         <v>45782</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>31</v>
@@ -2801,16 +2768,16 @@
         <v>31</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>25</v>
@@ -2819,7 +2786,7 @@
         <v>45792</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="N18" s="7">
         <v>45792</v>
@@ -2925,7 +2892,7 @@
         <v>45735</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="N20" s="11">
         <v>45792</v>
@@ -2934,10 +2901,10 @@
         <v>45691</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
@@ -2978,7 +2945,7 @@
         <v>45712</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="N21" s="11">
         <v>45792</v>
@@ -2987,13 +2954,13 @@
         <v>45691</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>173</v>
       </c>
@@ -3022,281 +2989,281 @@
         <v>45466</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="8">
-        <v>45673</v>
+        <v>45748</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="N22" s="7">
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="O22" s="8">
         <v>45691</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11">
+        <v>45684</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="11">
+        <v>46779</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N23" s="8">
+        <v>45792</v>
+      </c>
+      <c r="O23" s="8">
+        <v>45688</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="27">
+        <v>45758</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="H24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="27">
+        <v>45758</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="7">
+        <v>45771</v>
+      </c>
+      <c r="O24" s="8">
+        <v>45775</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="27">
-        <v>45665</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="C25" s="8">
+        <v>45505</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="8">
+        <v>46395</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="8">
+        <v>45771</v>
+      </c>
+      <c r="O25" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P25" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="Q25" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="8">
+        <v>43999</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="8">
+        <v>44967</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="27">
-        <v>45700</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="N23" s="7">
-        <v>45755</v>
-      </c>
-      <c r="O23" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="11">
-        <v>46779</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="N24" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O24" s="8">
-        <v>45688</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="27">
-        <v>45758</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="27">
-        <v>45758</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="N25" s="7">
-        <v>45771</v>
-      </c>
-      <c r="O25" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="8">
-        <v>45505</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="8">
-        <v>46395</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="L26" s="8">
-        <v>45720</v>
+        <v>45615</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="N26" s="8">
-        <v>45771</v>
+        <v>45791</v>
       </c>
       <c r="O26" s="8">
         <v>45691</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>203</v>
+    <row r="27" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="8">
-        <v>43999</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="8">
-        <v>44967</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="8">
-        <v>45615</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>272</v>
+      <c r="I27" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="N27" s="8">
         <v>45791</v>
@@ -3304,308 +3271,308 @@
       <c r="O27" s="8">
         <v>45691</v>
       </c>
-      <c r="P27" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q27" s="15" t="s">
+      <c r="P27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7">
-        <v>45266</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="7">
-        <v>46232</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="7">
-        <v>45693</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>273</v>
+      <c r="C28" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="N28" s="8">
-        <v>45791</v>
+        <v>45761</v>
       </c>
       <c r="O28" s="8">
         <v>45691</v>
       </c>
-      <c r="P28" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q28" s="6" t="s">
+      <c r="P28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="8">
-        <v>44861</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="8">
-        <v>45720</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>274</v>
+      <c r="C29" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="N29" s="8">
-        <v>45761</v>
+        <v>45775</v>
       </c>
       <c r="O29" s="8">
         <v>45691</v>
       </c>
-      <c r="P29" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q29" s="15" t="s">
+      <c r="P29" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>46535</v>
+        <v>46992</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="7">
-        <v>45714</v>
+        <v>45784</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="N30" s="8">
-        <v>45775</v>
+        <v>45793</v>
       </c>
       <c r="O30" s="8">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="11">
+        <v>45709</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="11">
+        <v>46804</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="7">
-        <v>45715</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="K31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31" s="8">
+        <v>45761</v>
+      </c>
+      <c r="O31" s="8">
+        <v>45713</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="7">
-        <v>46992</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7">
-        <v>45784</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N31" s="8">
-        <v>45793</v>
-      </c>
-      <c r="O31" s="8">
-        <v>45715</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11">
+        <v>45417</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="11">
+        <v>45786</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" s="8">
+        <v>45791</v>
+      </c>
+      <c r="O32" s="8">
+        <v>45714</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="11">
-        <v>45709</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="11">
-        <v>46804</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="N32" s="8">
-        <v>45761</v>
-      </c>
-      <c r="O32" s="8">
-        <v>45713</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="11">
-        <v>45417</v>
+        <v>45776</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>259</v>
+        <v>235</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>236</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>25</v>
@@ -3614,16 +3581,16 @@
         <v>45786</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="N33" s="8">
+        <v>262</v>
+      </c>
+      <c r="N33" s="11">
         <v>45791</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="11">
         <v>45714</v>
       </c>
-      <c r="P33" s="6" t="s">
-        <v>222</v>
+      <c r="P33" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>28</v>
@@ -3631,149 +3598,149 @@
     </row>
     <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="11">
-        <v>45776</v>
+        <v>45758</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>245</v>
+        <v>31</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>270</v>
+      <c r="J34" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="11">
-        <v>45786</v>
+      <c r="L34" s="7">
+        <v>45775</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="N34" s="11">
-        <v>45791</v>
-      </c>
-      <c r="O34" s="11">
-        <v>45714</v>
+        <v>277</v>
+      </c>
+      <c r="N34" s="8">
+        <v>45792</v>
+      </c>
+      <c r="O34" s="8">
+        <v>45775</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="11">
-        <v>45758</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7">
+        <v>45638</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7">
-        <v>45775</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>286</v>
+        <v>45748</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="N35" s="8">
         <v>45792</v>
       </c>
       <c r="O35" s="8">
-        <v>45775</v>
+        <v>45691</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="7">
-        <v>45638</v>
+        <v>45161</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I36" s="7">
-        <v>46733</v>
+        <v>46257</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="7">
-        <v>45748</v>
+        <v>45370</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="N36" s="8">
         <v>45792</v>
@@ -3782,121 +3749,121 @@
         <v>45691</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="7">
-        <v>45161</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="7">
-        <v>46257</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="7">
-        <v>45370</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>96</v>
+      <c r="C37" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="N37" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O37" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+        <v>45777</v>
+      </c>
+      <c r="O37" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="N38" s="8">
+        <v>45779</v>
+      </c>
+      <c r="O38" s="14">
+        <v>45779</v>
+      </c>
+      <c r="P38" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45700</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I38" s="14">
-        <v>46795</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="14">
-        <v>45744</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="N38" s="8">
-        <v>45777</v>
-      </c>
-      <c r="O38" s="14">
-        <v>45701</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>35</v>
@@ -3905,25 +3872,25 @@
         <v>45779</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>25</v>
@@ -3932,7 +3899,7 @@
         <v>45779</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N39" s="8">
         <v>45779</v>
@@ -3941,7 +3908,7 @@
         <v>45779</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="30" t="s">
         <v>28</v>
@@ -4022,7 +3989,7 @@
     </row>
     <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -4031,25 +3998,25 @@
         <v>45440</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I2" s="7">
         <v>46535</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
@@ -4058,7 +4025,7 @@
         <v>45714</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="N2" s="8">
         <v>45775</v>
@@ -4067,7 +4034,7 @@
         <v>45691</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -4075,7 +4042,7 @@
     </row>
     <row r="3" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
@@ -4084,16 +4051,16 @@
         <v>45715</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>23</v>
@@ -4102,7 +4069,7 @@
         <v>46992</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -4111,7 +4078,7 @@
         <v>45784</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N3" s="8">
         <v>45793</v>
@@ -4120,7 +4087,7 @@
         <v>45715</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>28</v>
@@ -4128,7 +4095,7 @@
     </row>
     <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -4137,16 +4104,16 @@
         <v>45709</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -4155,7 +4122,7 @@
         <v>46804</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>25</v>
@@ -4164,7 +4131,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -4173,15 +4140,15 @@
         <v>45713</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
@@ -4190,25 +4157,25 @@
         <v>45417</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -4217,7 +4184,7 @@
         <v>45786</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N5" s="8">
         <v>45791</v>
@@ -4226,7 +4193,7 @@
         <v>45714</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>28</v>
@@ -4234,7 +4201,7 @@
     </row>
     <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>35</v>
@@ -4243,16 +4210,16 @@
         <v>45776</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>144</v>
@@ -4261,7 +4228,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -4270,7 +4237,7 @@
         <v>45786</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N6" s="11">
         <v>45791</v>
@@ -4279,7 +4246,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>28</v>
@@ -4323,7 +4290,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N7" s="8">
         <v>45792</v>
@@ -4332,10 +4299,10 @@
         <v>45775</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4376,7 +4343,7 @@
         <v>45748</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="N8" s="8">
         <v>45792</v>
@@ -4385,10 +4352,10 @@
         <v>45691</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
@@ -4438,10 +4405,10 @@
         <v>45691</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4517,7 +4484,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>35</v>
@@ -4526,25 +4493,25 @@
         <v>45779</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>25</v>
@@ -4553,7 +4520,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N2" s="8">
         <v>45779</v>
@@ -4562,7 +4529,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="30" t="s">
         <v>28</v>
@@ -4668,7 +4635,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -4677,7 +4644,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -4730,7 +4697,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -4783,7 +4750,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -4795,7 +4762,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -4836,7 +4803,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -4848,7 +4815,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4889,7 +4856,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -4901,12 +4868,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -4915,7 +4882,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -4924,7 +4891,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -4933,7 +4900,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -4942,7 +4909,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -5143,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
@@ -5243,7 +5210,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="N2" s="7">
         <v>45793</v>
@@ -5296,7 +5263,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N3" s="7">
         <v>45793</v>
@@ -5349,7 +5316,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N4" s="7">
         <v>45793</v>
@@ -5402,7 +5369,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N5" s="7">
         <v>45793</v>
@@ -5455,7 +5422,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N6" s="7">
         <v>45793</v>
@@ -5508,7 +5475,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N7" s="7">
         <v>45793</v>
@@ -5561,7 +5528,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N8" s="7">
         <v>45793</v>
@@ -5614,7 +5581,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N9" s="7">
         <v>45793</v>
@@ -5631,7 +5598,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>141</v>
@@ -5640,7 +5607,7 @@
         <v>45782</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>31</v>
@@ -5649,16 +5616,16 @@
         <v>31</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>25</v>
@@ -5667,7 +5634,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="N10" s="7">
         <v>45792</v>
@@ -5815,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,7 +5882,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="N2" s="11">
         <v>45792</v>
@@ -5924,10 +5891,10 @@
         <v>45691</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -5968,7 +5935,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="N3" s="11">
         <v>45792</v>
@@ -5977,13 +5944,13 @@
         <v>45691</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>173</v>
       </c>
@@ -6012,81 +5979,81 @@
         <v>45466</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="8">
-        <v>45673</v>
+        <v>45748</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="N4" s="7">
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="O4" s="8">
         <v>45691</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
-        <v>45665</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="27">
-        <v>45700</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45755</v>
+      <c r="C5" s="11">
+        <v>45684</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="11">
+        <v>46779</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" s="8">
+        <v>45792</v>
       </c>
       <c r="O5" s="8">
-        <v>45691</v>
+        <v>45688</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>28</v>
+        <v>178</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -6127,7 +6094,7 @@
         <v>45735</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N6" s="8">
         <v>45792</v>
@@ -6136,10 +6103,10 @@
         <v>45688</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6215,7 +6182,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>141</v>
@@ -6224,7 +6191,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
@@ -6233,16 +6200,16 @@
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
@@ -6251,7 +6218,7 @@
         <v>36</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>123</v>
@@ -6260,7 +6227,7 @@
         <v>26</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -6268,34 +6235,34 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I3" s="11">
         <v>46395</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
@@ -6304,7 +6271,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>123</v>
@@ -6313,7 +6280,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>28</v>
@@ -6392,22 +6359,22 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C2" s="8">
         <v>43999</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>32</v>
@@ -6419,7 +6386,7 @@
         <v>44967</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>48</v>
@@ -6428,7 +6395,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -6437,7 +6404,7 @@
         <v>45691</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>28</v>
@@ -6445,7 +6412,7 @@
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
@@ -6454,7 +6421,7 @@
         <v>45266</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>31</v>
@@ -6472,7 +6439,7 @@
         <v>46232</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -6481,7 +6448,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N3" s="8">
         <v>45791</v>
@@ -6490,7 +6457,7 @@
         <v>45691</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>28</v>
@@ -6498,7 +6465,7 @@
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>18</v>
@@ -6507,7 +6474,7 @@
         <v>44861</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>31</v>
@@ -6525,7 +6492,7 @@
         <v>45790</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
@@ -6534,7 +6501,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -6543,7 +6510,7 @@
         <v>45691</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="15" t="s">
         <v>28</v>
@@ -6622,7 +6589,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>18</v>
@@ -6631,25 +6598,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I2" s="14">
         <v>46795</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>25</v>
@@ -6658,7 +6625,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N2" s="8">
         <v>45777</v>
@@ -6667,7 +6634,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>28</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA1E72-7871-4E14-B660-E827DBEF5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D5C2F-3B55-4C8D-B2DC-38B144AB4D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="298">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1816,8 +1816,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
       <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
@@ -5780,10 +5780,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6053,59 +6053,6 @@
         <v>178</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="11">
-        <v>46779</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="N6" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O6" s="8">
-        <v>45688</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="26" t="s">
         <v>276</v>
       </c>
     </row>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D5C2F-3B55-4C8D-B2DC-38B144AB4D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02EFF2-3235-4E25-AC8E-69247C16796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="298">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -893,9 +893,6 @@
     <t>REVOCATORIA DE MANDATO</t>
   </si>
   <si>
-    <t>02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
-  </si>
-  <si>
     <t>SHANNERY CHAPARRO</t>
   </si>
   <si>
@@ -1215,6 +1212,10 @@
 AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
 16/01/2025 YA LLEGARON LAS NOTIFICACIONES
 15/01/2025 SE DEBE CORRER TRASLADO</t>
+  </si>
+  <si>
+    <t>14/05/2025 REALIZADA AUDIENCIA PÚBLICA
+02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
   </si>
 </sst>
 </file>
@@ -1814,12 +1815,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1929,7 +1930,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -1938,7 +1939,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -1991,7 +1992,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -2044,7 +2045,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -2056,7 +2057,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -2097,7 +2098,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -2109,7 +2110,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
@@ -2150,7 +2151,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -2162,12 +2163,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -2176,7 +2177,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -2185,7 +2186,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -2194,7 +2195,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -2203,7 +2204,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -2362,7 +2363,7 @@
         <v>45698</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N10" s="7">
         <v>45793</v>
@@ -2415,7 +2416,7 @@
         <v>45744</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N11" s="7">
         <v>45793</v>
@@ -2468,7 +2469,7 @@
         <v>45714</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N12" s="7">
         <v>45793</v>
@@ -2521,7 +2522,7 @@
         <v>45734</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N13" s="7">
         <v>45793</v>
@@ -2574,7 +2575,7 @@
         <v>45771</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N14" s="7">
         <v>45793</v>
@@ -2627,7 +2628,7 @@
         <v>45748</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N15" s="7">
         <v>45793</v>
@@ -2680,7 +2681,7 @@
         <v>45735</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N16" s="7">
         <v>45793</v>
@@ -2733,7 +2734,7 @@
         <v>45769</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N17" s="7">
         <v>45793</v>
@@ -2750,7 +2751,7 @@
     </row>
     <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>141</v>
@@ -2759,16 +2760,16 @@
         <v>45782</v>
       </c>
       <c r="D18" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>219</v>
@@ -2777,7 +2778,7 @@
         <v>31</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>25</v>
@@ -2786,7 +2787,7 @@
         <v>45792</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N18" s="7">
         <v>45792</v>
@@ -2892,7 +2893,7 @@
         <v>45735</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N20" s="11">
         <v>45792</v>
@@ -2904,7 +2905,7 @@
         <v>178</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
@@ -2945,7 +2946,7 @@
         <v>45712</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N21" s="11">
         <v>45792</v>
@@ -2957,7 +2958,7 @@
         <v>178</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
@@ -2989,7 +2990,7 @@
         <v>45466</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>25</v>
@@ -2998,7 +2999,7 @@
         <v>45748</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N22" s="7">
         <v>45783</v>
@@ -3051,7 +3052,7 @@
         <v>45735</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N23" s="8">
         <v>45792</v>
@@ -3063,7 +3064,7 @@
         <v>178</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -3210,7 +3211,7 @@
         <v>45615</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N26" s="8">
         <v>45791</v>
@@ -3263,7 +3264,7 @@
         <v>45693</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N27" s="8">
         <v>45791</v>
@@ -3316,7 +3317,7 @@
         <v>45720</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N28" s="8">
         <v>45761</v>
@@ -3413,7 +3414,7 @@
         <v>46992</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>25</v>
@@ -3422,7 +3423,7 @@
         <v>45784</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N30" s="8">
         <v>45793</v>
@@ -3475,7 +3476,7 @@
         <v>45735</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N31" s="8">
         <v>45761</v>
@@ -3492,7 +3493,7 @@
     </row>
     <row r="32" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>35</v>
@@ -3501,25 +3502,25 @@
         <v>45417</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="H32" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="I32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>25</v>
@@ -3528,7 +3529,7 @@
         <v>45786</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N32" s="8">
         <v>45791</v>
@@ -3572,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>25</v>
@@ -3581,7 +3582,7 @@
         <v>45786</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N33" s="11">
         <v>45791</v>
@@ -3634,7 +3635,7 @@
         <v>45775</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N34" s="8">
         <v>45792</v>
@@ -3646,7 +3647,7 @@
         <v>213</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
@@ -3687,7 +3688,7 @@
         <v>45748</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N35" s="8">
         <v>45792</v>
@@ -3699,7 +3700,7 @@
         <v>213</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
@@ -3752,7 +3753,7 @@
         <v>213</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
@@ -3837,85 +3838,32 @@
         <v>31</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="14">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="N38" s="8">
         <v>45779</v>
       </c>
       <c r="O38" s="14">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q38" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N39" s="8">
-        <v>45779</v>
-      </c>
-      <c r="O39" s="14">
-        <v>45779</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q39" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q39" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4069,7 +4017,7 @@
         <v>46992</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -4078,7 +4026,7 @@
         <v>45784</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N3" s="8">
         <v>45793</v>
@@ -4131,7 +4079,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -4148,7 +4096,7 @@
     </row>
     <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
@@ -4157,25 +4105,25 @@
         <v>45417</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="H5" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -4184,7 +4132,7 @@
         <v>45786</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N5" s="8">
         <v>45791</v>
@@ -4228,7 +4176,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -4237,7 +4185,7 @@
         <v>45786</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N6" s="11">
         <v>45791</v>
@@ -4290,7 +4238,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N7" s="8">
         <v>45792</v>
@@ -4302,7 +4250,7 @@
         <v>213</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4343,7 +4291,7 @@
         <v>45748</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N8" s="8">
         <v>45792</v>
@@ -4355,7 +4303,7 @@
         <v>213</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
@@ -4408,7 +4356,7 @@
         <v>213</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +4369,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,25 +4459,25 @@
         <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="14">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="N2" s="8">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="O2" s="14">
         <v>45779</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q2" s="30" t="s">
         <v>28</v>
@@ -4635,7 +4583,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -4644,7 +4592,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -4697,7 +4645,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -4750,7 +4698,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -4762,7 +4710,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -4803,7 +4751,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -4815,7 +4763,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4856,7 +4804,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -4868,12 +4816,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -4882,7 +4830,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -4891,7 +4839,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -4900,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -4909,7 +4857,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -5210,7 +5158,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N2" s="7">
         <v>45793</v>
@@ -5263,7 +5211,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N3" s="7">
         <v>45793</v>
@@ -5316,7 +5264,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N4" s="7">
         <v>45793</v>
@@ -5369,7 +5317,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
         <v>45793</v>
@@ -5422,7 +5370,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N6" s="7">
         <v>45793</v>
@@ -5475,7 +5423,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N7" s="7">
         <v>45793</v>
@@ -5528,7 +5476,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N8" s="7">
         <v>45793</v>
@@ -5581,7 +5529,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N9" s="7">
         <v>45793</v>
@@ -5598,7 +5546,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>141</v>
@@ -5607,16 +5555,16 @@
         <v>45782</v>
       </c>
       <c r="D10" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>219</v>
@@ -5625,7 +5573,7 @@
         <v>31</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>25</v>
@@ -5634,7 +5582,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N10" s="7">
         <v>45792</v>
@@ -5882,7 +5830,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N2" s="11">
         <v>45792</v>
@@ -5894,7 +5842,7 @@
         <v>178</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -5935,7 +5883,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N3" s="11">
         <v>45792</v>
@@ -5947,7 +5895,7 @@
         <v>178</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
@@ -5979,7 +5927,7 @@
         <v>45466</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
@@ -5988,7 +5936,7 @@
         <v>45748</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N4" s="7">
         <v>45783</v>
@@ -6041,7 +5989,7 @@
         <v>45735</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N5" s="8">
         <v>45792</v>
@@ -6053,7 +6001,7 @@
         <v>178</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6290,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -6395,7 +6343,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N3" s="8">
         <v>45791</v>
@@ -6448,7 +6396,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02EFF2-3235-4E25-AC8E-69247C16796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D193722-2578-471D-BE1A-57D5C91B7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="332">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -890,9 +890,6 @@
     <t>CARLOS HUGO MESA MAYNE</t>
   </si>
   <si>
-    <t>REVOCATORIA DE MANDATO</t>
-  </si>
-  <si>
     <t>SHANNERY CHAPARRO</t>
   </si>
   <si>
@@ -1214,8 +1211,114 @@
 15/01/2025 SE DEBE CORRER TRASLADO</t>
   </si>
   <si>
-    <t>14/05/2025 REALIZADA AUDIENCIA PÚBLICA
-02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
+    <t>CNE-E-DG-2025-009162</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "FUERZA JOVEN" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO  DE  LA APARTADA FRONTERA CORDOBA</t>
+  </si>
+  <si>
+    <t>LA APARTADA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE INSCRIPCIÓN DE CANDIDATOS</t>
+  </si>
+  <si>
+    <t>REGISTRO DE LOGO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR LA ASESORA ANYI AGUIRRE</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "JUVENTUDES ODS" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE VILLAVICENCIO META</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009346</t>
+  </si>
+  <si>
+    <t>QUEJA POR POSIBLE HECHOS ANÓMALOS EN EL MUNICIPIO DE LA JAGUA DEL PILAR LA GUAJIRA DURANTE EL DESARROLLO DE LA ELECCIONES ATÍPICAS DEL 18 DE MAYO DE 2025</t>
+  </si>
+  <si>
+    <t>LA GUAJIRA</t>
+  </si>
+  <si>
+    <t>LA GAJUA DEL PILAR</t>
+  </si>
+  <si>
+    <t>FABIAN VICENTE COTES GONZALEZ</t>
+  </si>
+  <si>
+    <t>DELITO ELECTORAL</t>
+  </si>
+  <si>
+    <t>23/05/ 2025 RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009351</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "VOCES INCLUYENTES" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE SANTA ROSA - META</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>REGISTRO LOGO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR EL ASESOR MIGUEL CALDERON</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "JÓVENES POR UNA MEJOR CIUDAD" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE VILLAVICENCIO META</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009483</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "PARCHADOS BCA" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE BARRANCABERMEJA - SANTANDER</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009133</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN 02056 DE 2025: DECLARACIÓN POLÍTICA EXTEMPORÁNEA, PARA QUE ADELANTEN LAS ACTUACIONES ADMINISTRATIVAS CORRESPONDIENTES, POR PARTE DEL PARTIDO CAMBIO RADICAL FRENTE AL GOBIERNO DE SAN ONOFRE SUCRE</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>SAN ONOFRE</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN 02056 DE 2025</t>
+  </si>
+  <si>
+    <t>DECLARACION POLITICA</t>
+  </si>
+  <si>
+    <t>AUTO 050 AVOCA CONOCIMIENTO DE LA COMPULSA DE COPIAS</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,6 +1377,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1409,11 +1520,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1500,21 +1612,249 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2AF8BEAA-C327-4F20-8D05-10D15FA1704F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1815,12 +2155,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1930,7 +2270,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -1939,7 +2279,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -1992,7 +2332,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -2045,7 +2385,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -2057,7 +2397,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -2098,7 +2438,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -2110,7 +2450,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
@@ -2151,7 +2491,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -2163,12 +2503,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -2177,7 +2517,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -2186,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -2195,7 +2535,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -2204,7 +2544,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -2219,62 +2559,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45798</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="11">
+        <v>45798</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="N8" s="12">
+        <v>45799</v>
+      </c>
+      <c r="O8" s="7">
+        <v>45798</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44861</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7">
-        <v>45790</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="7">
-        <v>45775</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="7">
-        <v>45775</v>
-      </c>
-      <c r="O8" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -2286,7 +2626,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>31</v>
@@ -2301,16 +2641,16 @@
         <v>45790</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="7">
-        <v>45705</v>
+        <v>45775</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
         <v>45775</v>
@@ -2322,260 +2662,260 @@
         <v>68</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7">
+        <v>45705</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45775</v>
+      </c>
+      <c r="O10" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18">
-        <v>44203</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="18">
-        <v>45298</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="18">
-        <v>45698</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="N10" s="7">
-        <v>45793</v>
-      </c>
-      <c r="O10" s="19">
-        <v>45666</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="18">
-        <v>44627</v>
+        <v>44203</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I11" s="18">
-        <v>45701</v>
+        <v>45298</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="18">
-        <v>45744</v>
+        <v>45698</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N11" s="7">
         <v>45793</v>
       </c>
       <c r="O11" s="19">
-        <v>45708</v>
+        <v>45666</v>
       </c>
       <c r="P11" s="20" t="s">
         <v>102</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="18">
-        <v>45266</v>
+        <v>44627</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="18">
-        <v>46174</v>
+        <v>45701</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="18">
-        <v>45714</v>
+        <v>45744</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N12" s="7">
         <v>45793</v>
       </c>
       <c r="O12" s="19">
-        <v>45715</v>
+        <v>45708</v>
       </c>
       <c r="P12" s="20" t="s">
         <v>102</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
-        <v>45049</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="7">
-        <v>46145</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7">
-        <v>45734</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>289</v>
+      <c r="C13" s="18">
+        <v>45266</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="18">
+        <v>46174</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="18">
+        <v>45714</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="N13" s="7">
         <v>45793</v>
       </c>
-      <c r="O13" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P13" s="21" t="s">
+      <c r="O13" s="19">
+        <v>45715</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="Q13" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11">
-        <v>45518</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="11">
-        <v>46613</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="11">
-        <v>45771</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>290</v>
+      <c r="C14" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7">
+        <v>45734</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="N14" s="7">
         <v>45793</v>
@@ -2583,184 +2923,184 @@
       <c r="O14" s="8">
         <v>45691</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7">
-        <v>45688</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="7">
-        <v>46783</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7">
-        <v>45748</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>291</v>
+      <c r="C15" s="11">
+        <v>45518</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11">
+        <v>46613</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="11">
+        <v>45771</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="N15" s="7">
         <v>45793</v>
       </c>
       <c r="O15" s="8">
-        <v>45744</v>
-      </c>
-      <c r="P15" s="21" t="s">
+        <v>45691</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="Q15" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="23">
-        <v>45246</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="23">
-        <v>46342</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="23">
-        <v>45735</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>292</v>
+      <c r="C16" s="7">
+        <v>45688</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7">
+        <v>46783</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7">
+        <v>45748</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="N16" s="7">
         <v>45793</v>
       </c>
-      <c r="O16" s="25">
-        <v>45733</v>
-      </c>
-      <c r="P16" s="22" t="s">
+      <c r="O16" s="8">
+        <v>45744</v>
+      </c>
+      <c r="P16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C17" s="23">
-        <v>45769</v>
+        <v>45246</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>31</v>
+        <v>138</v>
+      </c>
+      <c r="I17" s="23">
+        <v>46342</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="23">
-        <v>45769</v>
+        <v>45735</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N17" s="7">
         <v>45793</v>
       </c>
-      <c r="O17" s="7">
-        <v>45775</v>
+      <c r="O17" s="25">
+        <v>45733</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>102</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="23">
-        <v>45782</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>252</v>
+        <v>45769</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>31</v>
@@ -2769,31 +3109,31 @@
         <v>31</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="23">
-        <v>45792</v>
+        <v>45769</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="O18" s="7">
-        <v>45789</v>
+        <v>45775</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>102</v>
@@ -2802,513 +3142,513 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="23">
+        <v>45782</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="23">
+        <v>45792</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45792</v>
+      </c>
+      <c r="O19" s="7">
+        <v>45789</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="23">
+        <v>45798</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="23">
+        <v>45798</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="N20" s="36">
+        <v>45798</v>
+      </c>
+      <c r="O20" s="7">
+        <v>45798</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="23">
+        <v>45800</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="23">
+        <v>45800</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="N21" s="36">
+        <v>45803</v>
+      </c>
+      <c r="O21" s="23">
+        <v>45803</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45246</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="8">
-        <v>45790</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="8">
-        <v>45754</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45775</v>
-      </c>
-      <c r="O19" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="25">
-        <v>45264</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="25">
-        <v>46315</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="25">
-        <v>45735</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="N20" s="11">
-        <v>45792</v>
-      </c>
-      <c r="O20" s="25">
-        <v>45691</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="27">
-        <v>45653</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="27">
-        <v>46549</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="27">
-        <v>45712</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="N21" s="11">
-        <v>45792</v>
-      </c>
-      <c r="O21" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="8">
-        <v>45466</v>
+        <v>45246</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8">
-        <v>45466</v>
+        <v>45790</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="8">
-        <v>45748</v>
+        <v>45754</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>45783</v>
+        <v>45775</v>
       </c>
       <c r="O22" s="8">
         <v>45691</v>
       </c>
       <c r="P22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="25">
+        <v>45264</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="25">
+        <v>46315</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="25">
+        <v>45735</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="11">
+        <v>45792</v>
+      </c>
+      <c r="O23" s="25">
+        <v>45691</v>
+      </c>
+      <c r="P23" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="Q22" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="Q23" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="11">
-        <v>45684</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="11">
-        <v>46779</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="11">
-        <v>45735</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="C24" s="27">
+        <v>45653</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="27">
+        <v>46549</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="27">
+        <v>45712</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="N24" s="11">
         <v>45792</v>
       </c>
-      <c r="O23" s="8">
-        <v>45688</v>
-      </c>
-      <c r="P23" s="10" t="s">
+      <c r="O24" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="Q23" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="27">
-        <v>45758</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="27">
-        <v>45758</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="7">
-        <v>45771</v>
-      </c>
-      <c r="O24" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="Q24" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="8">
-        <v>45505</v>
+        <v>45466</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I25" s="8">
-        <v>46395</v>
+        <v>45466</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="8">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="N25" s="8">
-        <v>45771</v>
+        <v>295</v>
+      </c>
+      <c r="N25" s="7">
+        <v>45783</v>
       </c>
       <c r="O25" s="8">
         <v>45691</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="8">
-        <v>43999</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="8">
-        <v>44967</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="8">
-        <v>45615</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>262</v>
+    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11">
+        <v>45684</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="11">
+        <v>46779</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="11">
+        <v>45735</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="N26" s="8">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="O26" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+        <v>45688</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="27">
+        <v>45758</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="27">
+        <v>45758</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" s="7">
+        <v>45771</v>
+      </c>
+      <c r="O27" s="8">
+        <v>45775</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7">
-        <v>45266</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="7">
-        <v>46232</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="7">
-        <v>45693</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="N27" s="8">
-        <v>45791</v>
-      </c>
-      <c r="O27" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="8">
-        <v>44861</v>
+        <v>45505</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I28" s="8">
-        <v>45790</v>
+        <v>46395</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>25</v>
@@ -3317,553 +3657,936 @@
         <v>45720</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="N28" s="8">
-        <v>45761</v>
+        <v>45771</v>
       </c>
       <c r="O28" s="8">
         <v>45691</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8">
+        <v>45800</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="8">
+        <v>45800</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O29" s="8">
+        <v>45803</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43999</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="8">
+        <v>44967</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="8">
+        <v>45615</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="N30" s="8">
+        <v>45791</v>
+      </c>
+      <c r="O30" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" s="8">
+        <v>45791</v>
+      </c>
+      <c r="O31" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45790</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="8">
+        <v>45720</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="N32" s="8">
+        <v>45761</v>
+      </c>
+      <c r="O32" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C33" s="7">
         <v>45440</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I33" s="7">
         <v>46535</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="7">
+      <c r="K33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="7">
         <v>45714</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N33" s="8">
         <v>45775</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O33" s="8">
         <v>45691</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C34" s="7">
         <v>45715</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I34" s="7">
         <v>46992</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="7">
+        <v>45784</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="7">
-        <v>45784</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="N34" s="8">
         <v>45793</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O34" s="8">
         <v>45715</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="35" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C35" s="11">
         <v>45709</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I35" s="11">
         <v>46804</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="K35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="11">
         <v>45735</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M35" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N35" s="8">
+        <v>45761</v>
+      </c>
+      <c r="O35" s="8">
+        <v>45713</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11">
+        <v>45417</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="N31" s="8">
-        <v>45761</v>
-      </c>
-      <c r="O31" s="8">
-        <v>45713</v>
-      </c>
-      <c r="P31" s="6" t="s">
+      <c r="K36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="11">
+        <v>45786</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N36" s="8">
+        <v>45791</v>
+      </c>
+      <c r="O36" s="8">
+        <v>45714</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="Q36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="11">
-        <v>45417</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="C37" s="11">
+        <v>45776</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="11">
+        <v>45786</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N37" s="11">
+        <v>45791</v>
+      </c>
+      <c r="O37" s="11">
+        <v>45714</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="11">
+        <v>45758</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="11">
-        <v>45786</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" s="8">
-        <v>45791</v>
-      </c>
-      <c r="O32" s="8">
-        <v>45714</v>
-      </c>
-      <c r="P32" s="6" t="s">
+      <c r="F38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="7">
+        <v>45775</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N38" s="8">
+        <v>45792</v>
+      </c>
+      <c r="O38" s="8">
+        <v>45775</v>
+      </c>
+      <c r="P38" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q38" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7">
+        <v>45638</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="7">
+        <v>45748</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N39" s="8">
+        <v>45792</v>
+      </c>
+      <c r="O39" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7">
+        <v>45161</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="7">
+        <v>46257</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="7">
+        <v>45370</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" s="8">
+        <v>45792</v>
+      </c>
+      <c r="O40" s="8">
+        <v>45691</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="11">
+        <v>45798</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="11">
+        <v>45798</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="N41" s="12">
+        <v>45798</v>
+      </c>
+      <c r="O41" s="11">
+        <v>45798</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q41" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="42" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="11">
-        <v>45776</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="11">
-        <v>45786</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="N33" s="11">
-        <v>45791</v>
-      </c>
-      <c r="O33" s="11">
-        <v>45714</v>
-      </c>
-      <c r="P33" s="9" t="s">
+      <c r="C42" s="11">
+        <v>45803</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="11">
+        <v>45803</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="N42" s="12">
+        <v>45803</v>
+      </c>
+      <c r="O42" s="11">
+        <v>45803</v>
+      </c>
+      <c r="P42" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q42" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="10" t="s">
+    <row r="43" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" s="8">
+        <v>45777</v>
+      </c>
+      <c r="O43" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="11">
-        <v>45758</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="7">
-        <v>45775</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="N34" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O34" s="8">
-        <v>45775</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>45638</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="7">
-        <v>46733</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="7">
-        <v>45748</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N35" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O35" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="7">
-        <v>45161</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="7">
-        <v>46257</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="7">
-        <v>45370</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N36" s="8">
-        <v>45792</v>
-      </c>
-      <c r="O36" s="8">
-        <v>45691</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="14">
-        <v>45700</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="14">
-        <v>46795</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="14">
-        <v>45744</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="8">
-        <v>45777</v>
-      </c>
-      <c r="O37" s="14">
-        <v>45701</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="C44" s="14">
+        <v>45798</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="14">
+        <v>45799</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="N44" s="14">
+        <v>45799</v>
+      </c>
+      <c r="O44" s="8">
+        <v>45803</v>
+      </c>
+      <c r="P44" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="I38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="14">
-        <v>45791</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N38" s="8">
-        <v>45779</v>
-      </c>
-      <c r="O38" s="14">
-        <v>45791</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q38" s="30" t="s">
+      <c r="Q44" s="13" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <conditionalFormatting sqref="M44">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A44" r:id="rId1" xr:uid="{EAAD91A2-90E6-4380-9C68-67BDD3DA4475}"/>
+    <hyperlink ref="A42" r:id="rId2" xr:uid="{311DD614-99E6-40A8-B118-7F3F072A87A3}"/>
+    <hyperlink ref="A21" r:id="rId3" xr:uid="{9738EE7E-A813-4039-8B1F-A6E05CCA84C2}"/>
+    <hyperlink ref="A29" r:id="rId4" xr:uid="{984D0010-BD3F-4E1D-B2DC-DBE8615E186A}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{98008150-9209-4FD2-A563-B2A96339AFFE}"/>
+    <hyperlink ref="A41" r:id="rId6" xr:uid="{B56A2A39-D410-4952-AAFF-8276E6F40980}"/>
+    <hyperlink ref="A20" r:id="rId7" xr:uid="{4D5A7938-F9CE-4B42-AD08-B74E312AE320}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3871,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,7 +4740,7 @@
         <v>46992</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>25</v>
@@ -4026,7 +4749,7 @@
         <v>45784</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N3" s="8">
         <v>45793</v>
@@ -4079,7 +4802,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>
@@ -4096,7 +4819,7 @@
     </row>
     <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
@@ -4105,25 +4828,25 @@
         <v>45417</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="H5" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>25</v>
@@ -4132,7 +4855,7 @@
         <v>45786</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N5" s="8">
         <v>45791</v>
@@ -4176,7 +4899,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
@@ -4185,7 +4908,7 @@
         <v>45786</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N6" s="11">
         <v>45791</v>
@@ -4238,7 +4961,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N7" s="8">
         <v>45792</v>
@@ -4250,7 +4973,7 @@
         <v>213</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4291,7 +5014,7 @@
         <v>45748</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N8" s="8">
         <v>45792</v>
@@ -4303,7 +5026,7 @@
         <v>213</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
@@ -4356,20 +5079,302 @@
         <v>213</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45803</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="11">
+        <v>45803</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="12">
+        <v>45803</v>
+      </c>
+      <c r="O10" s="11">
+        <v>45803</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="96" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45798</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="11">
+        <v>45798</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="12">
+        <v>45798</v>
+      </c>
+      <c r="O11" s="11">
+        <v>45798</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{7CC9125B-83BC-4239-A917-9A0887EFF6F4}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{E8BF2C7A-9B09-4AFA-A87C-59279D946D68}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65B1D2-9DDC-4748-A89D-A3B554A960BE}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45779</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="14">
+        <v>45798</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14">
+        <v>45799</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="U2" s="14">
+        <v>45799</v>
+      </c>
+      <c r="V2" s="8">
+        <v>45803</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{908B5DAF-FFF2-44BE-A544-76CDDE2FA0FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,130 +5435,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="14">
-        <v>45791</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N2" s="8">
-        <v>45791</v>
-      </c>
-      <c r="O2" s="14">
-        <v>45779</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
@@ -4583,7 +5464,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>25</v>
@@ -4592,7 +5473,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -4645,7 +5526,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" s="8">
         <v>45761</v>
@@ -4698,7 +5579,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="7">
         <v>45792</v>
@@ -4710,7 +5591,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -4751,7 +5632,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N5" s="11">
         <v>45792</v>
@@ -4763,7 +5644,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -4804,7 +5685,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N6" s="11">
         <v>45792</v>
@@ -4816,12 +5697,12 @@
         <v>49</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -4830,7 +5711,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>148</v>
@@ -4839,7 +5720,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>39</v>
@@ -4848,7 +5729,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>25</v>
@@ -4857,7 +5738,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N7" s="11">
         <v>45792</v>
@@ -4872,7 +5753,71 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45798</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="11">
+        <v>45798</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="N8" s="12">
+        <v>45799</v>
+      </c>
+      <c r="O8" s="7">
+        <v>45798</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{16F83BBB-A729-4B9D-BE9C-82E0A62CCD49}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5056,10 +6001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,7 +6012,7 @@
     <col min="1" max="17" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +6065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>97</v>
       </c>
@@ -5145,35 +6090,59 @@
       <c r="H2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="18">
+        <v>44203</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="18">
         <v>45298</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="S2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="18">
         <v>45698</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="U2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="V2" s="7">
         <v>45793</v>
       </c>
-      <c r="O2" s="19">
+      <c r="W2" s="19">
         <v>45666</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
@@ -5198,35 +6167,59 @@
       <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="18">
+        <v>44627</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="18">
         <v>45701</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="S3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="18">
         <v>45744</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="U3" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="V3" s="7">
         <v>45793</v>
       </c>
-      <c r="O3" s="19">
+      <c r="W3" s="19">
         <v>45708</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="X3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Y3" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>109</v>
       </c>
@@ -5251,35 +6244,59 @@
       <c r="H4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="18">
+        <v>45266</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="18">
         <v>46174</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="S4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="18">
         <v>45714</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="U4" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="V4" s="7">
         <v>45793</v>
       </c>
-      <c r="O4" s="19">
+      <c r="W4" s="19">
         <v>45715</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -5304,35 +6321,59 @@
       <c r="H5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7">
+        <v>45049</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="7">
         <v>46145</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="7">
+      <c r="T5" s="7">
         <v>45734</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="U5" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="V5" s="7">
         <v>45793</v>
       </c>
-      <c r="O5" s="8">
+      <c r="W5" s="8">
         <v>45691</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="X5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Y5" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
@@ -5357,35 +6398,59 @@
       <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="11">
+        <v>45518</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="11">
         <v>46613</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="S6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="11">
         <v>45771</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="U6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="V6" s="7">
         <v>45793</v>
       </c>
-      <c r="O6" s="8">
+      <c r="W6" s="8">
         <v>45691</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -5410,35 +6475,59 @@
       <c r="H7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7">
+        <v>45688</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="7">
         <v>46783</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="S7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="7">
         <v>45748</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="U7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="V7" s="7">
         <v>45793</v>
       </c>
-      <c r="O7" s="8">
+      <c r="W7" s="8">
         <v>45744</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="X7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Y7" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>132</v>
       </c>
@@ -5463,35 +6552,59 @@
       <c r="H8" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="23">
+        <v>45246</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="23">
         <v>46342</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="R8" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="23">
+      <c r="S8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="23">
         <v>45735</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="U8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="V8" s="7">
         <v>45793</v>
       </c>
-      <c r="O8" s="25">
+      <c r="W8" s="25">
         <v>45733</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="X8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Y8" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>140</v>
       </c>
@@ -5516,37 +6629,61 @@
       <c r="H9" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>31</v>
+      <c r="I9" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="J9" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="23">
+        <v>45769</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="S9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="23">
         <v>45769</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="U9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="V9" s="7">
         <v>45793</v>
       </c>
-      <c r="O9" s="7">
+      <c r="W9" s="7">
         <v>45775</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="X9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+      <c r="Y9" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="153" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>141</v>
@@ -5554,50 +6691,200 @@
       <c r="C10" s="23">
         <v>45782</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>253</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>31</v>
+      <c r="I10" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="23">
+        <v>141</v>
+      </c>
+      <c r="K10" s="23">
+        <v>45782</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="23">
         <v>45792</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="U10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="V10" s="7">
         <v>45792</v>
       </c>
-      <c r="O10" s="7">
+      <c r="W10" s="7">
         <v>45789</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="X10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="22" t="s">
-        <v>31</v>
+      <c r="Y10" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="23">
+        <v>45800</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="23">
+        <v>45800</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="V11" s="36">
+        <v>45803</v>
+      </c>
+      <c r="W11" s="23">
+        <v>45803</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="I12" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="23">
+        <v>45798</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="23">
+        <v>45798</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="V12" s="36">
+        <v>45798</v>
+      </c>
+      <c r="W12" s="7">
+        <v>45798</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" s="22" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{7C040E20-3B29-41D5-85D8-B13BA28D9F4D}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{8ED5351C-FFE1-4A70-853F-23631E1473EE}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5830,7 +7117,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N2" s="11">
         <v>45792</v>
@@ -5842,7 +7129,7 @@
         <v>178</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -5883,7 +7170,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N3" s="11">
         <v>45792</v>
@@ -5895,7 +7182,7 @@
         <v>178</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
@@ -5927,7 +7214,7 @@
         <v>45466</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>25</v>
@@ -5936,7 +7223,7 @@
         <v>45748</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N4" s="7">
         <v>45783</v>
@@ -5989,7 +7276,7 @@
         <v>45735</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="8">
         <v>45792</v>
@@ -6001,7 +7288,7 @@
         <v>178</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6011,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,7 +7468,71 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45800</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8">
+        <v>45800</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O4" s="8">
+        <v>45803</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{5244C0D9-04D1-4ABF-A5D7-5B21D9E859A2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6290,7 +7641,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N2" s="8">
         <v>45791</v>
@@ -6343,7 +7694,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N3" s="8">
         <v>45791</v>
@@ -6396,7 +7747,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N4" s="8">
         <v>45761</v>

--- a/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
+++ b/HSA H.M ALVARO ECHEVERRY EXPEDIENTES ACTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D193722-2578-471D-BE1A-57D5C91B7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDF941-051A-44AB-BAB1-6BE52D1102C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -1657,7 +1657,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2AF8BEAA-C327-4F20-8D05-10D15FA1704F}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2157,8 +2171,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:Q44"/>
     </sheetView>
@@ -2900,7 +2914,7 @@
         <v>114</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
         <v>46145</v>
@@ -3217,7 +3231,7 @@
       <c r="G20" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="9" t="s">
         <v>300</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -3376,8 +3390,8 @@
       <c r="G23" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>159</v>
+      <c r="H23" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="I23" s="25">
         <v>46315</v>
@@ -3641,8 +3655,8 @@
       <c r="G28" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>191</v>
+      <c r="H28" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="I28" s="8">
         <v>46395</v>
@@ -3694,8 +3708,8 @@
       <c r="G29" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>317</v>
+      <c r="H29" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>31</v>
@@ -3906,7 +3920,7 @@
       <c r="G33" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="22" t="s">
         <v>219</v>
       </c>
       <c r="I33" s="7">
@@ -4171,7 +4185,7 @@
       <c r="G38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -4436,8 +4450,8 @@
       <c r="G43" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>210</v>
+      <c r="H43" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="I43" s="14">
         <v>46795</v>
@@ -4522,70 +4536,54 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q38" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
-  <conditionalFormatting sqref="M44">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="M20:M21">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="M41:M42">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="M44">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A44" r:id="rId1" xr:uid="{EAAD91A2-90E6-4380-9C68-67BDD3DA4475}"/>
-    <hyperlink ref="A42" r:id="rId2" xr:uid="{311DD614-99E6-40A8-B118-7F3F072A87A3}"/>
-    <hyperlink ref="A21" r:id="rId3" xr:uid="{9738EE7E-A813-4039-8B1F-A6E05CCA84C2}"/>
-    <hyperlink ref="A29" r:id="rId4" xr:uid="{984D0010-BD3F-4E1D-B2DC-DBE8615E186A}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{98008150-9209-4FD2-A563-B2A96339AFFE}"/>
-    <hyperlink ref="A41" r:id="rId6" xr:uid="{B56A2A39-D410-4952-AAFF-8276E6F40980}"/>
-    <hyperlink ref="A20" r:id="rId7" xr:uid="{4D5A7938-F9CE-4B42-AD08-B74E312AE320}"/>
+    <hyperlink ref="A44" r:id="rId1" xr:uid="{0809FA27-3576-40C9-AEAE-BCC9B25E8DE6}"/>
+    <hyperlink ref="A42" r:id="rId2" xr:uid="{CAC71FA8-B4D8-4906-BE90-68157FCDA747}"/>
+    <hyperlink ref="A21" r:id="rId3" xr:uid="{CFE81EA7-7FA8-4851-A85C-DD06B7825F9F}"/>
+    <hyperlink ref="A29" r:id="rId4" xr:uid="{B53542DA-E187-40BE-8A7C-CCDD9124C4D5}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{67E7F4AB-8E3B-473A-8362-3C2CF81EE24E}"/>
+    <hyperlink ref="A41" r:id="rId6" xr:uid="{78C9E305-76D0-4D34-95FF-FB8EC5A41BA3}"/>
+    <hyperlink ref="A20" r:id="rId7" xr:uid="{E2EC3D5A-6E3B-47F5-9A98-2D927CB8241D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5189,19 +5187,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="M10:M11">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5217,7 +5207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65B1D2-9DDC-4748-A89D-A3B554A960BE}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -5355,10 +5345,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5808,10 +5798,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6865,19 +6855,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="U11:U12">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7523,10 +7505,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
